--- a/noise_defense_attack_result/paper_default setting/AGNEWS/results.xlsx
+++ b/noise_defense_attack_result/paper_default setting/AGNEWS/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
   <si>
     <t>Models</t>
   </si>
@@ -67,6 +67,30 @@
     <t>94.40%</t>
   </si>
   <si>
+    <t>BERT_INFOBERT</t>
+  </si>
+  <si>
+    <t>45.20% (52.07%)</t>
+  </si>
+  <si>
+    <t>373.83</t>
+  </si>
+  <si>
+    <t>94.30%</t>
+  </si>
+  <si>
+    <t>BERT_TMD</t>
+  </si>
+  <si>
+    <t>47.80% (49.04%)</t>
+  </si>
+  <si>
+    <t>833.43</t>
+  </si>
+  <si>
+    <t>93.80%</t>
+  </si>
+  <si>
     <t>BERT_post_att_all_0.2</t>
   </si>
   <si>
@@ -127,43 +151,85 @@
     <t>91.70%</t>
   </si>
   <si>
-    <t>ROBERTA</t>
-  </si>
-  <si>
-    <t>34.10% (63.72%)</t>
-  </si>
-  <si>
-    <t>342.21</t>
+    <t>textfooler</t>
+  </si>
+  <si>
+    <t>36.80% (60.93%)</t>
+  </si>
+  <si>
+    <t>317.27</t>
+  </si>
+  <si>
+    <t>41.20% (53.81%)</t>
+  </si>
+  <si>
+    <t>262.07</t>
+  </si>
+  <si>
+    <t>49.90% (47.14%)</t>
+  </si>
+  <si>
+    <t>356.69</t>
+  </si>
+  <si>
+    <t>47.50% (49.63%)</t>
+  </si>
+  <si>
+    <t>336.77</t>
+  </si>
+  <si>
+    <t>51.60% (44.81%)</t>
+  </si>
+  <si>
+    <t>744.87</t>
+  </si>
+  <si>
+    <t>93.50%</t>
+  </si>
+  <si>
+    <t>44.70% (52.45%)</t>
+  </si>
+  <si>
+    <t>605.06</t>
   </si>
   <si>
     <t>94.00%</t>
   </si>
   <si>
-    <t>ROBERTA_post_att_all_0.3</t>
-  </si>
-  <si>
-    <t>42.90% (54.12%)</t>
-  </si>
-  <si>
-    <t>720.43</t>
-  </si>
-  <si>
-    <t>93.50%</t>
-  </si>
-  <si>
-    <t>ROBERTA_post_att_all_0.4</t>
-  </si>
-  <si>
-    <t>718.55</t>
-  </si>
-  <si>
-    <t>ROBERTA_pre_att_all_0.2</t>
-  </si>
-  <si>
-    <t>40.00% (56.90%)</t>
-  </si>
-  <si>
-    <t>695.52</t>
+    <t>48.60% (48.35%)</t>
+  </si>
+  <si>
+    <t>652.88</t>
+  </si>
+  <si>
+    <t>94.10%</t>
+  </si>
+  <si>
+    <t>48.20% (48.00%)</t>
+  </si>
+  <si>
+    <t>651.52</t>
+  </si>
+  <si>
+    <t>92.70%</t>
+  </si>
+  <si>
+    <t>49.00% (47.71%)</t>
+  </si>
+  <si>
+    <t>675.86</t>
+  </si>
+  <si>
+    <t>93.70%</t>
+  </si>
+  <si>
+    <t>34.50% (62.34%)</t>
+  </si>
+  <si>
+    <t>557.34</t>
+  </si>
+  <si>
+    <t>91.60%</t>
   </si>
   <si>
     <t>bertattack</t>
@@ -187,15 +253,24 @@
     <t>370.82</t>
   </si>
   <si>
+    <t>56.00% (40.62%)</t>
+  </si>
+  <si>
+    <t>366.40</t>
+  </si>
+  <si>
+    <t>52.60% (43.74%)</t>
+  </si>
+  <si>
+    <t>766.72</t>
+  </si>
+  <si>
     <t>50.30% (46.38%)</t>
   </si>
   <si>
     <t>679.35</t>
   </si>
   <si>
-    <t>93.80%</t>
-  </si>
-  <si>
     <t>54.90% (41.35%)</t>
   </si>
   <si>
@@ -224,120 +299,6 @@
   </si>
   <si>
     <t>615.00</t>
-  </si>
-  <si>
-    <t>45.10% (52.02%)</t>
-  </si>
-  <si>
-    <t>354.88</t>
-  </si>
-  <si>
-    <t>56.10% (40.38%)</t>
-  </si>
-  <si>
-    <t>723.39</t>
-  </si>
-  <si>
-    <t>94.10%</t>
-  </si>
-  <si>
-    <t>53.50% (42.16%)</t>
-  </si>
-  <si>
-    <t>730.30</t>
-  </si>
-  <si>
-    <t>51.30% (44.84%)</t>
-  </si>
-  <si>
-    <t>711.10</t>
-  </si>
-  <si>
-    <t>textfooler</t>
-  </si>
-  <si>
-    <t>36.80% (60.93%)</t>
-  </si>
-  <si>
-    <t>317.27</t>
-  </si>
-  <si>
-    <t>41.20% (53.81%)</t>
-  </si>
-  <si>
-    <t>262.07</t>
-  </si>
-  <si>
-    <t>49.90% (47.14%)</t>
-  </si>
-  <si>
-    <t>356.69</t>
-  </si>
-  <si>
-    <t>44.70% (52.45%)</t>
-  </si>
-  <si>
-    <t>605.06</t>
-  </si>
-  <si>
-    <t>48.60% (48.35%)</t>
-  </si>
-  <si>
-    <t>652.88</t>
-  </si>
-  <si>
-    <t>48.20% (48.00%)</t>
-  </si>
-  <si>
-    <t>651.52</t>
-  </si>
-  <si>
-    <t>92.70%</t>
-  </si>
-  <si>
-    <t>49.00% (47.71%)</t>
-  </si>
-  <si>
-    <t>675.86</t>
-  </si>
-  <si>
-    <t>93.70%</t>
-  </si>
-  <si>
-    <t>34.50% (62.34%)</t>
-  </si>
-  <si>
-    <t>557.34</t>
-  </si>
-  <si>
-    <t>91.60%</t>
-  </si>
-  <si>
-    <t>35.70% (62.02%)</t>
-  </si>
-  <si>
-    <t>308.99</t>
-  </si>
-  <si>
-    <t>44.10% (52.99%)</t>
-  </si>
-  <si>
-    <t>615.97</t>
-  </si>
-  <si>
-    <t>46.90% (49.89%)</t>
-  </si>
-  <si>
-    <t>637.28</t>
-  </si>
-  <si>
-    <t>40.80% (56.18%)</t>
-  </si>
-  <si>
-    <t>614.34</t>
-  </si>
-  <si>
-    <t>93.10%</t>
   </si>
 </sst>
 </file>
@@ -672,13 +633,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -700,11 +661,11 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -744,16 +705,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -770,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -796,16 +757,16 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -813,7 +774,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -822,16 +783,16 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -839,7 +800,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -848,16 +809,16 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -865,7 +826,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -874,16 +835,16 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -891,7 +852,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -900,16 +861,16 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -917,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
@@ -926,16 +887,16 @@
         <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -943,7 +904,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
@@ -952,16 +913,16 @@
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -969,7 +930,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>42</v>
@@ -978,68 +939,16 @@
         <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/noise_defense_attack_result/paper_default setting/AGNEWS/results.xlsx
+++ b/noise_defense_attack_result/paper_default setting/AGNEWS/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="141">
   <si>
     <t>Models</t>
   </si>
@@ -22,78 +22,234 @@
     <t>Clean Accuracy (%)</t>
   </si>
   <si>
+    <t>textfooler</t>
+  </si>
+  <si>
+    <t>AuA(%) (ASR(%)↓)</t>
+  </si>
+  <si>
+    <t>Avg. Query↓</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>36.80% (60.93%)</t>
+  </si>
+  <si>
+    <t>317.27</t>
+  </si>
+  <si>
+    <t>94.20%</t>
+  </si>
+  <si>
+    <t>BERT_ASCC</t>
+  </si>
+  <si>
+    <t>41.20% (53.81%)</t>
+  </si>
+  <si>
+    <t>262.07</t>
+  </si>
+  <si>
+    <t>89.20%</t>
+  </si>
+  <si>
+    <t>BERT_FREELB</t>
+  </si>
+  <si>
+    <t>49.90% (47.14%)</t>
+  </si>
+  <si>
+    <t>356.69</t>
+  </si>
+  <si>
+    <t>94.40%</t>
+  </si>
+  <si>
+    <t>BERT_INFOBERT</t>
+  </si>
+  <si>
+    <t>47.50% (49.63%)</t>
+  </si>
+  <si>
+    <t>336.77</t>
+  </si>
+  <si>
+    <t>94.30%</t>
+  </si>
+  <si>
+    <t>BERT_TMD</t>
+  </si>
+  <si>
+    <t>51.60% (44.81%)</t>
+  </si>
+  <si>
+    <t>744.87</t>
+  </si>
+  <si>
+    <t>93.50%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.2</t>
+  </si>
+  <si>
+    <t>44.70% (52.45%)</t>
+  </si>
+  <si>
+    <t>605.06</t>
+  </si>
+  <si>
+    <t>94.00%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.3</t>
+  </si>
+  <si>
+    <t>48.60% (48.35%)</t>
+  </si>
+  <si>
+    <t>652.88</t>
+  </si>
+  <si>
+    <t>94.10%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.4</t>
+  </si>
+  <si>
+    <t>48.20% (48.00%)</t>
+  </si>
+  <si>
+    <t>651.52</t>
+  </si>
+  <si>
+    <t>92.70%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_all_0.2</t>
+  </si>
+  <si>
+    <t>49.00% (47.71%)</t>
+  </si>
+  <si>
+    <t>675.86</t>
+  </si>
+  <si>
+    <t>93.70%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_all_0.3</t>
+  </si>
+  <si>
+    <t>34.50% (62.34%)</t>
+  </si>
+  <si>
+    <t>557.34</t>
+  </si>
+  <si>
+    <t>91.60%</t>
+  </si>
+  <si>
+    <t>ROBERTA</t>
+  </si>
+  <si>
+    <t>41.00% (56.15%)</t>
+  </si>
+  <si>
+    <t>335.88</t>
+  </si>
+  <si>
+    <t>ROBERTA_ASCC</t>
+  </si>
+  <si>
+    <t>51.00% (44.75%)</t>
+  </si>
+  <si>
+    <t>330.69</t>
+  </si>
+  <si>
+    <t>92.30%</t>
+  </si>
+  <si>
+    <t>ROBERTA_TMD</t>
+  </si>
+  <si>
+    <t>55.20% (41.09%)</t>
+  </si>
+  <si>
+    <t>766.74</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_all_0.2</t>
+  </si>
+  <si>
+    <t>49.70% (47.01%)</t>
+  </si>
+  <si>
+    <t>683.33</t>
+  </si>
+  <si>
+    <t>93.80%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_all_0.3</t>
+  </si>
+  <si>
+    <t>50.60% (45.77%)</t>
+  </si>
+  <si>
+    <t>700.43</t>
+  </si>
+  <si>
+    <t>93.30%</t>
+  </si>
+  <si>
+    <t>ROBERTA_pre_att_all_0.2</t>
+  </si>
+  <si>
+    <t>39.30% (57.00%)</t>
+  </si>
+  <si>
+    <t>618.76</t>
+  </si>
+  <si>
+    <t>91.40%</t>
+  </si>
+  <si>
     <t>textbugger</t>
   </si>
   <si>
-    <t>AuA(%) (ASR(%)↓)</t>
-  </si>
-  <si>
-    <t>Avg. Query↓</t>
-  </si>
-  <si>
-    <t>BERT</t>
-  </si>
-  <si>
     <t>35.20% (62.63%)</t>
   </si>
   <si>
     <t>351.92</t>
   </si>
   <si>
-    <t>94.20%</t>
-  </si>
-  <si>
-    <t>BERT_ASCC</t>
-  </si>
-  <si>
     <t>39.30% (55.94%)</t>
   </si>
   <si>
     <t>284.58</t>
   </si>
   <si>
-    <t>89.20%</t>
-  </si>
-  <si>
-    <t>BERT_FREELB</t>
-  </si>
-  <si>
     <t>47.30% (49.89%)</t>
   </si>
   <si>
     <t>394.19</t>
   </si>
   <si>
-    <t>94.40%</t>
-  </si>
-  <si>
-    <t>BERT_INFOBERT</t>
-  </si>
-  <si>
     <t>45.20% (52.07%)</t>
   </si>
   <si>
     <t>373.83</t>
   </si>
   <si>
-    <t>94.30%</t>
-  </si>
-  <si>
-    <t>BERT_TMD</t>
-  </si>
-  <si>
     <t>47.80% (49.04%)</t>
   </si>
   <si>
     <t>833.43</t>
   </si>
   <si>
-    <t>93.80%</t>
-  </si>
-  <si>
-    <t>BERT_post_att_all_0.2</t>
-  </si>
-  <si>
     <t>44.00% (52.99%)</t>
   </si>
   <si>
@@ -103,9 +259,6 @@
     <t>93.60%</t>
   </si>
   <si>
-    <t>BERT_post_att_all_0.3</t>
-  </si>
-  <si>
     <t>45.60% (50.97%)</t>
   </si>
   <si>
@@ -115,9 +268,6 @@
     <t>93.00%</t>
   </si>
   <si>
-    <t>BERT_post_att_all_0.4</t>
-  </si>
-  <si>
     <t>47.30% (49.03%)</t>
   </si>
   <si>
@@ -127,9 +277,6 @@
     <t>92.80%</t>
   </si>
   <si>
-    <t>BERT_pre_att_all_0.2</t>
-  </si>
-  <si>
     <t>44.80% (52.29%)</t>
   </si>
   <si>
@@ -139,9 +286,6 @@
     <t>93.90%</t>
   </si>
   <si>
-    <t>BERT_pre_att_all_0.3</t>
-  </si>
-  <si>
     <t>31.40% (65.76%)</t>
   </si>
   <si>
@@ -151,85 +295,46 @@
     <t>91.70%</t>
   </si>
   <si>
-    <t>textfooler</t>
-  </si>
-  <si>
-    <t>36.80% (60.93%)</t>
-  </si>
-  <si>
-    <t>317.27</t>
-  </si>
-  <si>
-    <t>41.20% (53.81%)</t>
-  </si>
-  <si>
-    <t>262.07</t>
-  </si>
-  <si>
-    <t>49.90% (47.14%)</t>
-  </si>
-  <si>
-    <t>356.69</t>
-  </si>
-  <si>
-    <t>47.50% (49.63%)</t>
-  </si>
-  <si>
-    <t>336.77</t>
-  </si>
-  <si>
-    <t>51.60% (44.81%)</t>
-  </si>
-  <si>
-    <t>744.87</t>
-  </si>
-  <si>
-    <t>93.50%</t>
-  </si>
-  <si>
-    <t>44.70% (52.45%)</t>
-  </si>
-  <si>
-    <t>605.06</t>
-  </si>
-  <si>
-    <t>94.00%</t>
-  </si>
-  <si>
-    <t>48.60% (48.35%)</t>
-  </si>
-  <si>
-    <t>652.88</t>
-  </si>
-  <si>
-    <t>94.10%</t>
-  </si>
-  <si>
-    <t>48.20% (48.00%)</t>
-  </si>
-  <si>
-    <t>651.52</t>
-  </si>
-  <si>
-    <t>92.70%</t>
-  </si>
-  <si>
-    <t>49.00% (47.71%)</t>
-  </si>
-  <si>
-    <t>675.86</t>
-  </si>
-  <si>
-    <t>93.70%</t>
-  </si>
-  <si>
-    <t>34.50% (62.34%)</t>
-  </si>
-  <si>
-    <t>557.34</t>
-  </si>
-  <si>
-    <t>91.60%</t>
+    <t>38.40% (58.93%)</t>
+  </si>
+  <si>
+    <t>371.20</t>
+  </si>
+  <si>
+    <t>49.50% (46.37%)</t>
+  </si>
+  <si>
+    <t>372.91</t>
+  </si>
+  <si>
+    <t>52.80% (43.59%)</t>
+  </si>
+  <si>
+    <t>878.22</t>
+  </si>
+  <si>
+    <t>50.70% (45.66%)</t>
+  </si>
+  <si>
+    <t>795.98</t>
+  </si>
+  <si>
+    <t>50.10% (45.90%)</t>
+  </si>
+  <si>
+    <t>796.93</t>
+  </si>
+  <si>
+    <t>92.60%</t>
+  </si>
+  <si>
+    <t>40.80% (55.75%)</t>
+  </si>
+  <si>
+    <t>726.04</t>
+  </si>
+  <si>
+    <t>92.20%</t>
   </si>
   <si>
     <t>bertattack</t>
@@ -292,13 +397,46 @@
     <t>731.95</t>
   </si>
   <si>
-    <t>93.30%</t>
-  </si>
-  <si>
     <t>39.60% (56.82%)</t>
   </si>
   <si>
     <t>615.00</t>
+  </si>
+  <si>
+    <t>47.30% (49.41%)</t>
+  </si>
+  <si>
+    <t>372.99</t>
+  </si>
+  <si>
+    <t>55.70% (39.65%)</t>
+  </si>
+  <si>
+    <t>374.58</t>
+  </si>
+  <si>
+    <t>57.90% (38.14%)</t>
+  </si>
+  <si>
+    <t>805.19</t>
+  </si>
+  <si>
+    <t>57.40% (38.74%)</t>
+  </si>
+  <si>
+    <t>772.54</t>
+  </si>
+  <si>
+    <t>54.70% (41.06%)</t>
+  </si>
+  <si>
+    <t>740.27</t>
+  </si>
+  <si>
+    <t>46.10% (50.43%)</t>
+  </si>
+  <si>
+    <t>672.77</t>
   </si>
 </sst>
 </file>
@@ -633,13 +771,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -661,11 +799,11 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -705,16 +843,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -731,16 +869,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -757,16 +895,16 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -783,16 +921,16 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -800,7 +938,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -809,16 +947,16 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -826,7 +964,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -835,16 +973,16 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -852,7 +990,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -861,16 +999,16 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -878,7 +1016,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
@@ -887,16 +1025,16 @@
         <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -904,7 +1042,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
@@ -913,16 +1051,16 @@
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -930,7 +1068,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>42</v>
@@ -939,16 +1077,172 @@
         <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>94</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/noise_defense_attack_result/paper_default setting/AGNEWS/results.xlsx
+++ b/noise_defense_attack_result/paper_default setting/AGNEWS/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="155">
   <si>
     <t>Models</t>
   </si>
@@ -22,78 +22,372 @@
     <t>Clean Accuracy (%)</t>
   </si>
   <si>
+    <t>textbugger</t>
+  </si>
+  <si>
+    <t>AuA(%) (ASR(%)↓)</t>
+  </si>
+  <si>
+    <t>Avg. Query↓</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>35.20% (62.63%)</t>
+  </si>
+  <si>
+    <t>351.92</t>
+  </si>
+  <si>
+    <t>94.20%</t>
+  </si>
+  <si>
+    <t>BERT_ASCC</t>
+  </si>
+  <si>
+    <t>39.30% (55.94%)</t>
+  </si>
+  <si>
+    <t>284.58</t>
+  </si>
+  <si>
+    <t>89.20%</t>
+  </si>
+  <si>
+    <t>BERT_FREELB</t>
+  </si>
+  <si>
+    <t>47.30% (49.89%)</t>
+  </si>
+  <si>
+    <t>394.19</t>
+  </si>
+  <si>
+    <t>94.40%</t>
+  </si>
+  <si>
+    <t>BERT_INFOBERT</t>
+  </si>
+  <si>
+    <t>45.20% (52.07%)</t>
+  </si>
+  <si>
+    <t>373.83</t>
+  </si>
+  <si>
+    <t>94.30%</t>
+  </si>
+  <si>
+    <t>BERT_TMD</t>
+  </si>
+  <si>
+    <t>47.80% (49.04%)</t>
+  </si>
+  <si>
+    <t>833.43</t>
+  </si>
+  <si>
+    <t>93.80%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.2</t>
+  </si>
+  <si>
+    <t>44.00% (52.99%)</t>
+  </si>
+  <si>
+    <t>679.69</t>
+  </si>
+  <si>
+    <t>93.60%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.3</t>
+  </si>
+  <si>
+    <t>45.60% (50.97%)</t>
+  </si>
+  <si>
+    <t>738.90</t>
+  </si>
+  <si>
+    <t>93.00%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.4</t>
+  </si>
+  <si>
+    <t>47.30% (49.03%)</t>
+  </si>
+  <si>
+    <t>745.41</t>
+  </si>
+  <si>
+    <t>92.80%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_all_0.2</t>
+  </si>
+  <si>
+    <t>44.80% (52.29%)</t>
+  </si>
+  <si>
+    <t>745.68</t>
+  </si>
+  <si>
+    <t>93.90%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_all_0.3</t>
+  </si>
+  <si>
+    <t>31.40% (65.76%)</t>
+  </si>
+  <si>
+    <t>630.81</t>
+  </si>
+  <si>
+    <t>91.70%</t>
+  </si>
+  <si>
+    <t>ROBERTA</t>
+  </si>
+  <si>
+    <t>38.40% (58.93%)</t>
+  </si>
+  <si>
+    <t>371.20</t>
+  </si>
+  <si>
+    <t>93.50%</t>
+  </si>
+  <si>
+    <t>ROBERTA_ASCC</t>
+  </si>
+  <si>
+    <t>49.50% (46.37%)</t>
+  </si>
+  <si>
+    <t>372.91</t>
+  </si>
+  <si>
+    <t>92.30%</t>
+  </si>
+  <si>
+    <t>ROBERTA_FREELB</t>
+  </si>
+  <si>
+    <t>50.50% (46.22%)</t>
+  </si>
+  <si>
+    <t>448.97</t>
+  </si>
+  <si>
+    <t>ROBERTA_INFOBERT</t>
+  </si>
+  <si>
+    <t>47.00% (50.11%)</t>
+  </si>
+  <si>
+    <t>394.56</t>
+  </si>
+  <si>
+    <t>ROBERTA_TMD</t>
+  </si>
+  <si>
+    <t>52.80% (43.59%)</t>
+  </si>
+  <si>
+    <t>878.22</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_all_0.2</t>
+  </si>
+  <si>
+    <t>50.70% (45.66%)</t>
+  </si>
+  <si>
+    <t>795.98</t>
+  </si>
+  <si>
+    <t>93.30%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_all_0.3</t>
+  </si>
+  <si>
+    <t>50.10% (45.90%)</t>
+  </si>
+  <si>
+    <t>796.93</t>
+  </si>
+  <si>
+    <t>92.60%</t>
+  </si>
+  <si>
+    <t>ROBERTA_pre_att_all_0.2</t>
+  </si>
+  <si>
+    <t>40.80% (55.75%)</t>
+  </si>
+  <si>
+    <t>726.04</t>
+  </si>
+  <si>
+    <t>92.20%</t>
+  </si>
+  <si>
+    <t>bertattack</t>
+  </si>
+  <si>
+    <t>46.50% (50.64%)</t>
+  </si>
+  <si>
+    <t>337.84</t>
+  </si>
+  <si>
+    <t>45.90% (48.54%)</t>
+  </si>
+  <si>
+    <t>263.59</t>
+  </si>
+  <si>
+    <t>52.00% (44.92%)</t>
+  </si>
+  <si>
+    <t>370.82</t>
+  </si>
+  <si>
+    <t>56.00% (40.62%)</t>
+  </si>
+  <si>
+    <t>366.40</t>
+  </si>
+  <si>
+    <t>52.60% (43.74%)</t>
+  </si>
+  <si>
+    <t>766.72</t>
+  </si>
+  <si>
+    <t>50.30% (46.38%)</t>
+  </si>
+  <si>
+    <t>679.35</t>
+  </si>
+  <si>
+    <t>54.90% (41.35%)</t>
+  </si>
+  <si>
+    <t>727.93</t>
+  </si>
+  <si>
+    <t>54.30% (41.30%)</t>
+  </si>
+  <si>
+    <t>737.32</t>
+  </si>
+  <si>
+    <t>92.50%</t>
+  </si>
+  <si>
+    <t>53.10% (43.09%)</t>
+  </si>
+  <si>
+    <t>731.95</t>
+  </si>
+  <si>
+    <t>39.60% (56.82%)</t>
+  </si>
+  <si>
+    <t>615.00</t>
+  </si>
+  <si>
+    <t>47.30% (49.41%)</t>
+  </si>
+  <si>
+    <t>372.99</t>
+  </si>
+  <si>
+    <t>55.70% (39.65%)</t>
+  </si>
+  <si>
+    <t>374.58</t>
+  </si>
+  <si>
+    <t>58.20% (38.02%)</t>
+  </si>
+  <si>
+    <t>442.97</t>
+  </si>
+  <si>
+    <t>55.00% (41.61%)</t>
+  </si>
+  <si>
+    <t>397.35</t>
+  </si>
+  <si>
+    <t>57.90% (38.14%)</t>
+  </si>
+  <si>
+    <t>805.19</t>
+  </si>
+  <si>
+    <t>57.40% (38.74%)</t>
+  </si>
+  <si>
+    <t>772.54</t>
+  </si>
+  <si>
+    <t>93.70%</t>
+  </si>
+  <si>
+    <t>54.70% (41.06%)</t>
+  </si>
+  <si>
+    <t>740.27</t>
+  </si>
+  <si>
+    <t>46.10% (50.43%)</t>
+  </si>
+  <si>
+    <t>672.77</t>
+  </si>
+  <si>
     <t>textfooler</t>
   </si>
   <si>
-    <t>AuA(%) (ASR(%)↓)</t>
-  </si>
-  <si>
-    <t>Avg. Query↓</t>
-  </si>
-  <si>
-    <t>BERT</t>
-  </si>
-  <si>
     <t>36.80% (60.93%)</t>
   </si>
   <si>
     <t>317.27</t>
   </si>
   <si>
-    <t>94.20%</t>
-  </si>
-  <si>
-    <t>BERT_ASCC</t>
-  </si>
-  <si>
     <t>41.20% (53.81%)</t>
   </si>
   <si>
     <t>262.07</t>
   </si>
   <si>
-    <t>89.20%</t>
-  </si>
-  <si>
-    <t>BERT_FREELB</t>
-  </si>
-  <si>
     <t>49.90% (47.14%)</t>
   </si>
   <si>
     <t>356.69</t>
   </si>
   <si>
-    <t>94.40%</t>
-  </si>
-  <si>
-    <t>BERT_INFOBERT</t>
-  </si>
-  <si>
     <t>47.50% (49.63%)</t>
   </si>
   <si>
     <t>336.77</t>
   </si>
   <si>
-    <t>94.30%</t>
-  </si>
-  <si>
-    <t>BERT_TMD</t>
-  </si>
-  <si>
     <t>51.60% (44.81%)</t>
   </si>
   <si>
     <t>744.87</t>
   </si>
   <si>
-    <t>93.50%</t>
-  </si>
-  <si>
-    <t>BERT_post_att_all_0.2</t>
-  </si>
-  <si>
     <t>44.70% (52.45%)</t>
   </si>
   <si>
@@ -103,9 +397,6 @@
     <t>94.00%</t>
   </si>
   <si>
-    <t>BERT_post_att_all_0.3</t>
-  </si>
-  <si>
     <t>48.60% (48.35%)</t>
   </si>
   <si>
@@ -115,9 +406,6 @@
     <t>94.10%</t>
   </si>
   <si>
-    <t>BERT_post_att_all_0.4</t>
-  </si>
-  <si>
     <t>48.20% (48.00%)</t>
   </si>
   <si>
@@ -127,21 +415,12 @@
     <t>92.70%</t>
   </si>
   <si>
-    <t>BERT_pre_att_all_0.2</t>
-  </si>
-  <si>
     <t>49.00% (47.71%)</t>
   </si>
   <si>
     <t>675.86</t>
   </si>
   <si>
-    <t>93.70%</t>
-  </si>
-  <si>
-    <t>BERT_pre_att_all_0.3</t>
-  </si>
-  <si>
     <t>34.50% (62.34%)</t>
   </si>
   <si>
@@ -151,28 +430,28 @@
     <t>91.60%</t>
   </si>
   <si>
-    <t>ROBERTA</t>
-  </si>
-  <si>
     <t>41.00% (56.15%)</t>
   </si>
   <si>
     <t>335.88</t>
   </si>
   <si>
-    <t>ROBERTA_ASCC</t>
-  </si>
-  <si>
     <t>51.00% (44.75%)</t>
   </si>
   <si>
     <t>330.69</t>
   </si>
   <si>
-    <t>92.30%</t>
-  </si>
-  <si>
-    <t>ROBERTA_TMD</t>
+    <t>52.00% (44.62%)</t>
+  </si>
+  <si>
+    <t>402.14</t>
+  </si>
+  <si>
+    <t>48.90% (48.09%)</t>
+  </si>
+  <si>
+    <t>357.44</t>
   </si>
   <si>
     <t>55.20% (41.09%)</t>
@@ -181,33 +460,18 @@
     <t>766.74</t>
   </si>
   <si>
-    <t>ROBERTA_post_att_all_0.2</t>
-  </si>
-  <si>
     <t>49.70% (47.01%)</t>
   </si>
   <si>
     <t>683.33</t>
   </si>
   <si>
-    <t>93.80%</t>
-  </si>
-  <si>
-    <t>ROBERTA_post_att_all_0.3</t>
-  </si>
-  <si>
     <t>50.60% (45.77%)</t>
   </si>
   <si>
     <t>700.43</t>
   </si>
   <si>
-    <t>93.30%</t>
-  </si>
-  <si>
-    <t>ROBERTA_pre_att_all_0.2</t>
-  </si>
-  <si>
     <t>39.30% (57.00%)</t>
   </si>
   <si>
@@ -215,228 +479,6 @@
   </si>
   <si>
     <t>91.40%</t>
-  </si>
-  <si>
-    <t>textbugger</t>
-  </si>
-  <si>
-    <t>35.20% (62.63%)</t>
-  </si>
-  <si>
-    <t>351.92</t>
-  </si>
-  <si>
-    <t>39.30% (55.94%)</t>
-  </si>
-  <si>
-    <t>284.58</t>
-  </si>
-  <si>
-    <t>47.30% (49.89%)</t>
-  </si>
-  <si>
-    <t>394.19</t>
-  </si>
-  <si>
-    <t>45.20% (52.07%)</t>
-  </si>
-  <si>
-    <t>373.83</t>
-  </si>
-  <si>
-    <t>47.80% (49.04%)</t>
-  </si>
-  <si>
-    <t>833.43</t>
-  </si>
-  <si>
-    <t>44.00% (52.99%)</t>
-  </si>
-  <si>
-    <t>679.69</t>
-  </si>
-  <si>
-    <t>93.60%</t>
-  </si>
-  <si>
-    <t>45.60% (50.97%)</t>
-  </si>
-  <si>
-    <t>738.90</t>
-  </si>
-  <si>
-    <t>93.00%</t>
-  </si>
-  <si>
-    <t>47.30% (49.03%)</t>
-  </si>
-  <si>
-    <t>745.41</t>
-  </si>
-  <si>
-    <t>92.80%</t>
-  </si>
-  <si>
-    <t>44.80% (52.29%)</t>
-  </si>
-  <si>
-    <t>745.68</t>
-  </si>
-  <si>
-    <t>93.90%</t>
-  </si>
-  <si>
-    <t>31.40% (65.76%)</t>
-  </si>
-  <si>
-    <t>630.81</t>
-  </si>
-  <si>
-    <t>91.70%</t>
-  </si>
-  <si>
-    <t>38.40% (58.93%)</t>
-  </si>
-  <si>
-    <t>371.20</t>
-  </si>
-  <si>
-    <t>49.50% (46.37%)</t>
-  </si>
-  <si>
-    <t>372.91</t>
-  </si>
-  <si>
-    <t>52.80% (43.59%)</t>
-  </si>
-  <si>
-    <t>878.22</t>
-  </si>
-  <si>
-    <t>50.70% (45.66%)</t>
-  </si>
-  <si>
-    <t>795.98</t>
-  </si>
-  <si>
-    <t>50.10% (45.90%)</t>
-  </si>
-  <si>
-    <t>796.93</t>
-  </si>
-  <si>
-    <t>92.60%</t>
-  </si>
-  <si>
-    <t>40.80% (55.75%)</t>
-  </si>
-  <si>
-    <t>726.04</t>
-  </si>
-  <si>
-    <t>92.20%</t>
-  </si>
-  <si>
-    <t>bertattack</t>
-  </si>
-  <si>
-    <t>46.50% (50.64%)</t>
-  </si>
-  <si>
-    <t>337.84</t>
-  </si>
-  <si>
-    <t>45.90% (48.54%)</t>
-  </si>
-  <si>
-    <t>263.59</t>
-  </si>
-  <si>
-    <t>52.00% (44.92%)</t>
-  </si>
-  <si>
-    <t>370.82</t>
-  </si>
-  <si>
-    <t>56.00% (40.62%)</t>
-  </si>
-  <si>
-    <t>366.40</t>
-  </si>
-  <si>
-    <t>52.60% (43.74%)</t>
-  </si>
-  <si>
-    <t>766.72</t>
-  </si>
-  <si>
-    <t>50.30% (46.38%)</t>
-  </si>
-  <si>
-    <t>679.35</t>
-  </si>
-  <si>
-    <t>54.90% (41.35%)</t>
-  </si>
-  <si>
-    <t>727.93</t>
-  </si>
-  <si>
-    <t>54.30% (41.30%)</t>
-  </si>
-  <si>
-    <t>737.32</t>
-  </si>
-  <si>
-    <t>92.50%</t>
-  </si>
-  <si>
-    <t>53.10% (43.09%)</t>
-  </si>
-  <si>
-    <t>731.95</t>
-  </si>
-  <si>
-    <t>39.60% (56.82%)</t>
-  </si>
-  <si>
-    <t>615.00</t>
-  </si>
-  <si>
-    <t>47.30% (49.41%)</t>
-  </si>
-  <si>
-    <t>372.99</t>
-  </si>
-  <si>
-    <t>55.70% (39.65%)</t>
-  </si>
-  <si>
-    <t>374.58</t>
-  </si>
-  <si>
-    <t>57.90% (38.14%)</t>
-  </si>
-  <si>
-    <t>805.19</t>
-  </si>
-  <si>
-    <t>57.40% (38.74%)</t>
-  </si>
-  <si>
-    <t>772.54</t>
-  </si>
-  <si>
-    <t>54.70% (41.06%)</t>
-  </si>
-  <si>
-    <t>740.27</t>
-  </si>
-  <si>
-    <t>46.10% (50.43%)</t>
-  </si>
-  <si>
-    <t>672.77</t>
   </si>
 </sst>
 </file>
@@ -771,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -799,11 +841,11 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -843,16 +885,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -869,16 +911,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -895,16 +937,16 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -921,16 +963,16 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -938,7 +980,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -947,16 +989,16 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -964,7 +1006,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -973,16 +1015,16 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -990,7 +1032,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -999,16 +1041,16 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1016,7 +1058,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
@@ -1025,16 +1067,16 @@
         <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1042,7 +1084,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
@@ -1051,16 +1093,16 @@
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1068,7 +1110,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>42</v>
@@ -1077,16 +1119,16 @@
         <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1094,7 +1136,7 @@
         <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>46</v>
@@ -1103,94 +1145,94 @@
         <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1198,7 +1240,7 @@
         <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>60</v>
@@ -1207,42 +1249,94 @@
         <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>140</v>
+      <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/noise_defense_attack_result/paper_default setting/AGNEWS/results.xlsx
+++ b/noise_defense_attack_result/paper_default setting/AGNEWS/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="136">
   <si>
     <t>Models</t>
   </si>
@@ -127,6 +127,30 @@
     <t>92.80%</t>
   </si>
   <si>
+    <t>BERT_post_att_cls_0.8</t>
+  </si>
+  <si>
+    <t>50.10% (45.90%)</t>
+  </si>
+  <si>
+    <t>819.44</t>
+  </si>
+  <si>
+    <t>92.60%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_cls_0.9</t>
+  </si>
+  <si>
+    <t>44.40% (52.72%)</t>
+  </si>
+  <si>
+    <t>734.27</t>
+  </si>
+  <si>
+    <t>93.90%</t>
+  </si>
+  <si>
     <t>BERT_pre_att_all_0.2</t>
   </si>
   <si>
@@ -136,9 +160,6 @@
     <t>745.68</t>
   </si>
   <si>
-    <t>93.90%</t>
-  </si>
-  <si>
     <t>BERT_pre_att_all_0.3</t>
   </si>
   <si>
@@ -151,276 +172,225 @@
     <t>91.70%</t>
   </si>
   <si>
-    <t>ROBERTA</t>
-  </si>
-  <si>
-    <t>38.40% (58.93%)</t>
-  </si>
-  <si>
-    <t>371.20</t>
+    <t>BERT_pre_att_cls_0.6</t>
+  </si>
+  <si>
+    <t>34.70% (62.41%)</t>
+  </si>
+  <si>
+    <t>670.61</t>
+  </si>
+  <si>
+    <t>92.30%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_cls_0.7</t>
+  </si>
+  <si>
+    <t>26.60% (71.18%)</t>
+  </si>
+  <si>
+    <t>597.46</t>
+  </si>
+  <si>
+    <t>BERT_post_att_cls_1</t>
+  </si>
+  <si>
+    <t>33.40% (63.46%)</t>
+  </si>
+  <si>
+    <t>617.49</t>
+  </si>
+  <si>
+    <t>91.40%</t>
+  </si>
+  <si>
+    <t>bertattack</t>
+  </si>
+  <si>
+    <t>46.50% (50.64%)</t>
+  </si>
+  <si>
+    <t>337.84</t>
+  </si>
+  <si>
+    <t>45.90% (48.54%)</t>
+  </si>
+  <si>
+    <t>263.59</t>
+  </si>
+  <si>
+    <t>52.00% (44.92%)</t>
+  </si>
+  <si>
+    <t>370.82</t>
+  </si>
+  <si>
+    <t>56.00% (40.62%)</t>
+  </si>
+  <si>
+    <t>366.40</t>
+  </si>
+  <si>
+    <t>52.60% (43.74%)</t>
+  </si>
+  <si>
+    <t>766.72</t>
   </si>
   <si>
     <t>93.50%</t>
   </si>
   <si>
-    <t>ROBERTA_ASCC</t>
-  </si>
-  <si>
-    <t>49.50% (46.37%)</t>
-  </si>
-  <si>
-    <t>372.91</t>
-  </si>
-  <si>
-    <t>92.30%</t>
-  </si>
-  <si>
-    <t>ROBERTA_FREELB</t>
-  </si>
-  <si>
-    <t>50.50% (46.22%)</t>
-  </si>
-  <si>
-    <t>448.97</t>
-  </si>
-  <si>
-    <t>ROBERTA_INFOBERT</t>
-  </si>
-  <si>
-    <t>47.00% (50.11%)</t>
-  </si>
-  <si>
-    <t>394.56</t>
-  </si>
-  <si>
-    <t>ROBERTA_TMD</t>
-  </si>
-  <si>
-    <t>52.80% (43.59%)</t>
-  </si>
-  <si>
-    <t>878.22</t>
-  </si>
-  <si>
-    <t>ROBERTA_post_att_all_0.2</t>
-  </si>
-  <si>
-    <t>50.70% (45.66%)</t>
-  </si>
-  <si>
-    <t>795.98</t>
+    <t>50.30% (46.38%)</t>
+  </si>
+  <si>
+    <t>679.35</t>
+  </si>
+  <si>
+    <t>54.90% (41.35%)</t>
+  </si>
+  <si>
+    <t>727.93</t>
+  </si>
+  <si>
+    <t>54.30% (41.30%)</t>
+  </si>
+  <si>
+    <t>737.32</t>
+  </si>
+  <si>
+    <t>92.50%</t>
+  </si>
+  <si>
+    <t>53.40% (42.89%)</t>
+  </si>
+  <si>
+    <t>752.61</t>
+  </si>
+  <si>
+    <t>48.60% (46.83%)</t>
+  </si>
+  <si>
+    <t>710.31</t>
+  </si>
+  <si>
+    <t>53.10% (43.09%)</t>
+  </si>
+  <si>
+    <t>731.95</t>
   </si>
   <si>
     <t>93.30%</t>
   </si>
   <si>
-    <t>ROBERTA_post_att_all_0.3</t>
-  </si>
-  <si>
-    <t>50.10% (45.90%)</t>
-  </si>
-  <si>
-    <t>796.93</t>
-  </si>
-  <si>
-    <t>92.60%</t>
-  </si>
-  <si>
-    <t>ROBERTA_pre_att_all_0.2</t>
-  </si>
-  <si>
-    <t>40.80% (55.75%)</t>
-  </si>
-  <si>
-    <t>726.04</t>
+    <t>39.60% (56.82%)</t>
+  </si>
+  <si>
+    <t>615.00</t>
+  </si>
+  <si>
+    <t>39.40% (57.54%)</t>
+  </si>
+  <si>
+    <t>640.75</t>
+  </si>
+  <si>
+    <t>29.70% (67.72%)</t>
+  </si>
+  <si>
+    <t>558.17</t>
+  </si>
+  <si>
+    <t>92.00%</t>
+  </si>
+  <si>
+    <t>36.20% (60.74%)</t>
+  </si>
+  <si>
+    <t>580.92</t>
   </si>
   <si>
     <t>92.20%</t>
   </si>
   <si>
-    <t>bertattack</t>
-  </si>
-  <si>
-    <t>46.50% (50.64%)</t>
-  </si>
-  <si>
-    <t>337.84</t>
-  </si>
-  <si>
-    <t>45.90% (48.54%)</t>
-  </si>
-  <si>
-    <t>263.59</t>
-  </si>
-  <si>
-    <t>52.00% (44.92%)</t>
-  </si>
-  <si>
-    <t>370.82</t>
-  </si>
-  <si>
-    <t>56.00% (40.62%)</t>
-  </si>
-  <si>
-    <t>366.40</t>
-  </si>
-  <si>
-    <t>52.60% (43.74%)</t>
-  </si>
-  <si>
-    <t>766.72</t>
-  </si>
-  <si>
-    <t>50.30% (46.38%)</t>
-  </si>
-  <si>
-    <t>679.35</t>
-  </si>
-  <si>
-    <t>54.90% (41.35%)</t>
-  </si>
-  <si>
-    <t>727.93</t>
-  </si>
-  <si>
-    <t>54.30% (41.30%)</t>
-  </si>
-  <si>
-    <t>737.32</t>
-  </si>
-  <si>
-    <t>92.50%</t>
-  </si>
-  <si>
-    <t>53.10% (43.09%)</t>
-  </si>
-  <si>
-    <t>731.95</t>
-  </si>
-  <si>
-    <t>39.60% (56.82%)</t>
-  </si>
-  <si>
-    <t>615.00</t>
-  </si>
-  <si>
-    <t>47.30% (49.41%)</t>
-  </si>
-  <si>
-    <t>372.99</t>
-  </si>
-  <si>
-    <t>55.70% (39.65%)</t>
-  </si>
-  <si>
-    <t>374.58</t>
-  </si>
-  <si>
-    <t>58.20% (38.02%)</t>
-  </si>
-  <si>
-    <t>442.97</t>
-  </si>
-  <si>
-    <t>55.00% (41.61%)</t>
-  </si>
-  <si>
-    <t>397.35</t>
-  </si>
-  <si>
-    <t>57.90% (38.14%)</t>
-  </si>
-  <si>
-    <t>805.19</t>
-  </si>
-  <si>
-    <t>57.40% (38.74%)</t>
-  </si>
-  <si>
-    <t>772.54</t>
+    <t>textfooler</t>
+  </si>
+  <si>
+    <t>36.80% (60.93%)</t>
+  </si>
+  <si>
+    <t>317.27</t>
+  </si>
+  <si>
+    <t>41.20% (53.81%)</t>
+  </si>
+  <si>
+    <t>262.07</t>
+  </si>
+  <si>
+    <t>49.90% (47.14%)</t>
+  </si>
+  <si>
+    <t>356.69</t>
+  </si>
+  <si>
+    <t>47.50% (49.63%)</t>
+  </si>
+  <si>
+    <t>336.77</t>
+  </si>
+  <si>
+    <t>51.60% (44.81%)</t>
+  </si>
+  <si>
+    <t>744.87</t>
+  </si>
+  <si>
+    <t>44.70% (52.45%)</t>
+  </si>
+  <si>
+    <t>605.06</t>
+  </si>
+  <si>
+    <t>94.00%</t>
+  </si>
+  <si>
+    <t>48.60% (48.35%)</t>
+  </si>
+  <si>
+    <t>652.88</t>
+  </si>
+  <si>
+    <t>94.10%</t>
+  </si>
+  <si>
+    <t>48.20% (48.00%)</t>
+  </si>
+  <si>
+    <t>651.52</t>
+  </si>
+  <si>
+    <t>92.70%</t>
+  </si>
+  <si>
+    <t>701.05</t>
+  </si>
+  <si>
+    <t>45.50% (50.65%)</t>
+  </si>
+  <si>
+    <t>659.59</t>
+  </si>
+  <si>
+    <t>49.00% (47.71%)</t>
+  </si>
+  <si>
+    <t>675.86</t>
   </si>
   <si>
     <t>93.70%</t>
   </si>
   <si>
-    <t>54.70% (41.06%)</t>
-  </si>
-  <si>
-    <t>740.27</t>
-  </si>
-  <si>
-    <t>46.10% (50.43%)</t>
-  </si>
-  <si>
-    <t>672.77</t>
-  </si>
-  <si>
-    <t>textfooler</t>
-  </si>
-  <si>
-    <t>36.80% (60.93%)</t>
-  </si>
-  <si>
-    <t>317.27</t>
-  </si>
-  <si>
-    <t>41.20% (53.81%)</t>
-  </si>
-  <si>
-    <t>262.07</t>
-  </si>
-  <si>
-    <t>49.90% (47.14%)</t>
-  </si>
-  <si>
-    <t>356.69</t>
-  </si>
-  <si>
-    <t>47.50% (49.63%)</t>
-  </si>
-  <si>
-    <t>336.77</t>
-  </si>
-  <si>
-    <t>51.60% (44.81%)</t>
-  </si>
-  <si>
-    <t>744.87</t>
-  </si>
-  <si>
-    <t>44.70% (52.45%)</t>
-  </si>
-  <si>
-    <t>605.06</t>
-  </si>
-  <si>
-    <t>94.00%</t>
-  </si>
-  <si>
-    <t>48.60% (48.35%)</t>
-  </si>
-  <si>
-    <t>652.88</t>
-  </si>
-  <si>
-    <t>94.10%</t>
-  </si>
-  <si>
-    <t>48.20% (48.00%)</t>
-  </si>
-  <si>
-    <t>651.52</t>
-  </si>
-  <si>
-    <t>92.70%</t>
-  </si>
-  <si>
-    <t>49.00% (47.71%)</t>
-  </si>
-  <si>
-    <t>675.86</t>
-  </si>
-  <si>
     <t>34.50% (62.34%)</t>
   </si>
   <si>
@@ -430,55 +400,28 @@
     <t>91.60%</t>
   </si>
   <si>
-    <t>41.00% (56.15%)</t>
-  </si>
-  <si>
-    <t>335.88</t>
-  </si>
-  <si>
-    <t>51.00% (44.75%)</t>
-  </si>
-  <si>
-    <t>330.69</t>
-  </si>
-  <si>
-    <t>52.00% (44.62%)</t>
-  </si>
-  <si>
-    <t>402.14</t>
-  </si>
-  <si>
-    <t>48.90% (48.09%)</t>
-  </si>
-  <si>
-    <t>357.44</t>
-  </si>
-  <si>
-    <t>55.20% (41.09%)</t>
-  </si>
-  <si>
-    <t>766.74</t>
-  </si>
-  <si>
-    <t>49.70% (47.01%)</t>
-  </si>
-  <si>
-    <t>683.33</t>
-  </si>
-  <si>
-    <t>50.60% (45.77%)</t>
-  </si>
-  <si>
-    <t>700.43</t>
-  </si>
-  <si>
-    <t>39.30% (57.00%)</t>
-  </si>
-  <si>
-    <t>618.76</t>
-  </si>
-  <si>
-    <t>91.40%</t>
+    <t>38.90% (57.90%)</t>
+  </si>
+  <si>
+    <t>610.20</t>
+  </si>
+  <si>
+    <t>92.40%</t>
+  </si>
+  <si>
+    <t>28.70% (68.84%)</t>
+  </si>
+  <si>
+    <t>527.46</t>
+  </si>
+  <si>
+    <t>92.10%</t>
+  </si>
+  <si>
+    <t>35.50% (61.29%)</t>
+  </si>
+  <si>
+    <t>550.55</t>
   </si>
 </sst>
 </file>
@@ -813,13 +756,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -841,11 +784,11 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -885,16 +828,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -911,16 +854,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -937,16 +880,16 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -963,16 +906,16 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -980,7 +923,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -989,16 +932,16 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1006,7 +949,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -1015,16 +958,16 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1032,7 +975,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -1041,16 +984,16 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1058,7 +1001,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
@@ -1067,16 +1010,16 @@
         <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1084,7 +1027,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
@@ -1093,16 +1036,16 @@
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1110,7 +1053,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>42</v>
@@ -1119,16 +1062,16 @@
         <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1136,7 +1079,7 @@
         <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>46</v>
@@ -1145,68 +1088,68 @@
         <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1214,7 +1157,7 @@
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>57</v>
@@ -1223,16 +1166,16 @@
         <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1240,7 +1183,7 @@
         <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>60</v>
@@ -1249,94 +1192,16 @@
         <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/noise_defense_attack_result/paper_default setting/AGNEWS/results.xlsx
+++ b/noise_defense_attack_result/paper_default setting/AGNEWS/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="231">
   <si>
     <t>Models</t>
   </si>
@@ -22,114 +22,384 @@
     <t>Clean Accuracy (%)</t>
   </si>
   <si>
+    <t>bertattack</t>
+  </si>
+  <si>
+    <t>AuA(%) (ASR(%)↓)</t>
+  </si>
+  <si>
+    <t>Avg. Query↓</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>46.50% (50.64%)</t>
+  </si>
+  <si>
+    <t>337.84</t>
+  </si>
+  <si>
+    <t>94.20%</t>
+  </si>
+  <si>
+    <t>BERT_ASCC</t>
+  </si>
+  <si>
+    <t>45.90% (48.54%)</t>
+  </si>
+  <si>
+    <t>263.59</t>
+  </si>
+  <si>
+    <t>89.20%</t>
+  </si>
+  <si>
+    <t>BERT_FREELB</t>
+  </si>
+  <si>
+    <t>52.00% (44.92%)</t>
+  </si>
+  <si>
+    <t>370.82</t>
+  </si>
+  <si>
+    <t>94.40%</t>
+  </si>
+  <si>
+    <t>BERT_INFOBERT</t>
+  </si>
+  <si>
+    <t>56.00% (40.62%)</t>
+  </si>
+  <si>
+    <t>366.40</t>
+  </si>
+  <si>
+    <t>94.30%</t>
+  </si>
+  <si>
+    <t>BERT_TMD</t>
+  </si>
+  <si>
+    <t>52.60% (43.74%)</t>
+  </si>
+  <si>
+    <t>766.72</t>
+  </si>
+  <si>
+    <t>93.50%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.2</t>
+  </si>
+  <si>
+    <t>50.30% (46.38%)</t>
+  </si>
+  <si>
+    <t>679.35</t>
+  </si>
+  <si>
+    <t>93.80%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.3</t>
+  </si>
+  <si>
+    <t>54.90% (41.35%)</t>
+  </si>
+  <si>
+    <t>727.93</t>
+  </si>
+  <si>
+    <t>93.60%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.4</t>
+  </si>
+  <si>
+    <t>54.30% (41.30%)</t>
+  </si>
+  <si>
+    <t>737.32</t>
+  </si>
+  <si>
+    <t>92.50%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_cls_0.8</t>
+  </si>
+  <si>
+    <t>53.40% (42.89%)</t>
+  </si>
+  <si>
+    <t>752.61</t>
+  </si>
+  <si>
+    <t>BERT_post_att_cls_0.9</t>
+  </si>
+  <si>
+    <t>48.60% (46.83%)</t>
+  </si>
+  <si>
+    <t>710.31</t>
+  </si>
+  <si>
+    <t>91.40%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_all_0.2</t>
+  </si>
+  <si>
+    <t>53.10% (43.09%)</t>
+  </si>
+  <si>
+    <t>731.95</t>
+  </si>
+  <si>
+    <t>93.30%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_all_0.3</t>
+  </si>
+  <si>
+    <t>39.60% (56.82%)</t>
+  </si>
+  <si>
+    <t>615.00</t>
+  </si>
+  <si>
+    <t>91.70%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_cls_0.6</t>
+  </si>
+  <si>
+    <t>39.40% (57.54%)</t>
+  </si>
+  <si>
+    <t>640.75</t>
+  </si>
+  <si>
+    <t>92.80%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_cls_0.7</t>
+  </si>
+  <si>
+    <t>29.70% (67.72%)</t>
+  </si>
+  <si>
+    <t>558.17</t>
+  </si>
+  <si>
+    <t>92.00%</t>
+  </si>
+  <si>
+    <t>ROBERTA</t>
+  </si>
+  <si>
+    <t>47.30% (49.41%)</t>
+  </si>
+  <si>
+    <t>372.99</t>
+  </si>
+  <si>
+    <t>ROBERTA_ASCC</t>
+  </si>
+  <si>
+    <t>55.70% (39.65%)</t>
+  </si>
+  <si>
+    <t>374.58</t>
+  </si>
+  <si>
+    <t>92.30%</t>
+  </si>
+  <si>
+    <t>ROBERTA_FREELB</t>
+  </si>
+  <si>
+    <t>58.20% (38.02%)</t>
+  </si>
+  <si>
+    <t>442.97</t>
+  </si>
+  <si>
+    <t>93.90%</t>
+  </si>
+  <si>
+    <t>ROBERTA_INFOBERT</t>
+  </si>
+  <si>
+    <t>55.00% (41.61%)</t>
+  </si>
+  <si>
+    <t>397.35</t>
+  </si>
+  <si>
+    <t>ROBERTA_TMD</t>
+  </si>
+  <si>
+    <t>57.90% (38.14%)</t>
+  </si>
+  <si>
+    <t>805.19</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_all_0.2</t>
+  </si>
+  <si>
+    <t>57.40% (38.74%)</t>
+  </si>
+  <si>
+    <t>772.54</t>
+  </si>
+  <si>
+    <t>93.70%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_all_0.3</t>
+  </si>
+  <si>
+    <t>54.70% (41.06%)</t>
+  </si>
+  <si>
+    <t>740.27</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_0.8</t>
+  </si>
+  <si>
+    <t>49.40% (47.28%)</t>
+  </si>
+  <si>
+    <t>733.27</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_0.9</t>
+  </si>
+  <si>
+    <t>42.30% (54.22%)</t>
+  </si>
+  <si>
+    <t>679.21</t>
+  </si>
+  <si>
+    <t>92.40%</t>
+  </si>
+  <si>
+    <t>ROBERTA_pre_att_all_0.2</t>
+  </si>
+  <si>
+    <t>46.10% (50.43%)</t>
+  </si>
+  <si>
+    <t>672.77</t>
+  </si>
+  <si>
+    <t>93.00%</t>
+  </si>
+  <si>
+    <t>ROBERTA_pre_att_cls_0.3</t>
+  </si>
+  <si>
+    <t>45.60% (50.81%)</t>
+  </si>
+  <si>
+    <t>681.12</t>
+  </si>
+  <si>
+    <t>92.70%</t>
+  </si>
+  <si>
+    <t>ROBERTA_pre_att_cls_0.4</t>
+  </si>
+  <si>
+    <t>25.80% (72.23%)</t>
+  </si>
+  <si>
+    <t>519.69</t>
+  </si>
+  <si>
+    <t>92.90%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_cls_1</t>
+  </si>
+  <si>
+    <t>36.20% (60.74%)</t>
+  </si>
+  <si>
+    <t>580.92</t>
+  </si>
+  <si>
+    <t>92.20%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_1</t>
+  </si>
+  <si>
+    <t>37.50% (59.19%)</t>
+  </si>
+  <si>
+    <t>621.53</t>
+  </si>
+  <si>
+    <t>91.90%</t>
+  </si>
+  <si>
     <t>textbugger</t>
   </si>
   <si>
-    <t>AuA(%) (ASR(%)↓)</t>
-  </si>
-  <si>
-    <t>Avg. Query↓</t>
-  </si>
-  <si>
-    <t>BERT</t>
-  </si>
-  <si>
     <t>35.20% (62.63%)</t>
   </si>
   <si>
     <t>351.92</t>
   </si>
   <si>
-    <t>94.20%</t>
-  </si>
-  <si>
-    <t>BERT_ASCC</t>
-  </si>
-  <si>
     <t>39.30% (55.94%)</t>
   </si>
   <si>
     <t>284.58</t>
   </si>
   <si>
-    <t>89.20%</t>
-  </si>
-  <si>
-    <t>BERT_FREELB</t>
-  </si>
-  <si>
     <t>47.30% (49.89%)</t>
   </si>
   <si>
     <t>394.19</t>
   </si>
   <si>
-    <t>94.40%</t>
-  </si>
-  <si>
-    <t>BERT_INFOBERT</t>
-  </si>
-  <si>
     <t>45.20% (52.07%)</t>
   </si>
   <si>
     <t>373.83</t>
   </si>
   <si>
-    <t>94.30%</t>
-  </si>
-  <si>
-    <t>BERT_TMD</t>
-  </si>
-  <si>
     <t>47.80% (49.04%)</t>
   </si>
   <si>
     <t>833.43</t>
   </si>
   <si>
-    <t>93.80%</t>
-  </si>
-  <si>
-    <t>BERT_post_att_all_0.2</t>
-  </si>
-  <si>
     <t>44.00% (52.99%)</t>
   </si>
   <si>
     <t>679.69</t>
   </si>
   <si>
-    <t>93.60%</t>
-  </si>
-  <si>
-    <t>BERT_post_att_all_0.3</t>
-  </si>
-  <si>
     <t>45.60% (50.97%)</t>
   </si>
   <si>
     <t>738.90</t>
   </si>
   <si>
-    <t>93.00%</t>
-  </si>
-  <si>
-    <t>BERT_post_att_all_0.4</t>
-  </si>
-  <si>
     <t>47.30% (49.03%)</t>
   </si>
   <si>
     <t>745.41</t>
   </si>
   <si>
-    <t>92.80%</t>
-  </si>
-  <si>
-    <t>BERT_post_att_cls_0.8</t>
-  </si>
-  <si>
     <t>50.10% (45.90%)</t>
   </si>
   <si>
@@ -139,61 +409,109 @@
     <t>92.60%</t>
   </si>
   <si>
-    <t>BERT_post_att_cls_0.9</t>
-  </si>
-  <si>
     <t>44.40% (52.72%)</t>
   </si>
   <si>
     <t>734.27</t>
   </si>
   <si>
-    <t>93.90%</t>
-  </si>
-  <si>
-    <t>BERT_pre_att_all_0.2</t>
-  </si>
-  <si>
     <t>44.80% (52.29%)</t>
   </si>
   <si>
     <t>745.68</t>
   </si>
   <si>
-    <t>BERT_pre_att_all_0.3</t>
-  </si>
-  <si>
     <t>31.40% (65.76%)</t>
   </si>
   <si>
     <t>630.81</t>
   </si>
   <si>
-    <t>91.70%</t>
-  </si>
-  <si>
-    <t>BERT_pre_att_cls_0.6</t>
-  </si>
-  <si>
     <t>34.70% (62.41%)</t>
   </si>
   <si>
     <t>670.61</t>
   </si>
   <si>
-    <t>92.30%</t>
-  </si>
-  <si>
-    <t>BERT_pre_att_cls_0.7</t>
-  </si>
-  <si>
     <t>26.60% (71.18%)</t>
   </si>
   <si>
     <t>597.46</t>
   </si>
   <si>
-    <t>BERT_post_att_cls_1</t>
+    <t>38.40% (58.93%)</t>
+  </si>
+  <si>
+    <t>371.20</t>
+  </si>
+  <si>
+    <t>49.50% (46.37%)</t>
+  </si>
+  <si>
+    <t>372.91</t>
+  </si>
+  <si>
+    <t>50.50% (46.22%)</t>
+  </si>
+  <si>
+    <t>448.97</t>
+  </si>
+  <si>
+    <t>47.00% (50.11%)</t>
+  </si>
+  <si>
+    <t>394.56</t>
+  </si>
+  <si>
+    <t>52.80% (43.59%)</t>
+  </si>
+  <si>
+    <t>878.22</t>
+  </si>
+  <si>
+    <t>50.70% (45.66%)</t>
+  </si>
+  <si>
+    <t>795.98</t>
+  </si>
+  <si>
+    <t>796.93</t>
+  </si>
+  <si>
+    <t>41.00% (55.96%)</t>
+  </si>
+  <si>
+    <t>755.71</t>
+  </si>
+  <si>
+    <t>93.10%</t>
+  </si>
+  <si>
+    <t>36.50% (60.67%)</t>
+  </si>
+  <si>
+    <t>723.79</t>
+  </si>
+  <si>
+    <t>40.80% (55.75%)</t>
+  </si>
+  <si>
+    <t>726.04</t>
+  </si>
+  <si>
+    <t>40.70% (56.42%)</t>
+  </si>
+  <si>
+    <t>721.77</t>
+  </si>
+  <si>
+    <t>93.40%</t>
+  </si>
+  <si>
+    <t>23.00% (75.08%)</t>
+  </si>
+  <si>
+    <t>543.95</t>
   </si>
   <si>
     <t>33.40% (63.46%)</t>
@@ -202,115 +520,13 @@
     <t>617.49</t>
   </si>
   <si>
-    <t>91.40%</t>
-  </si>
-  <si>
-    <t>bertattack</t>
-  </si>
-  <si>
-    <t>46.50% (50.64%)</t>
-  </si>
-  <si>
-    <t>337.84</t>
-  </si>
-  <si>
-    <t>45.90% (48.54%)</t>
-  </si>
-  <si>
-    <t>263.59</t>
-  </si>
-  <si>
-    <t>52.00% (44.92%)</t>
-  </si>
-  <si>
-    <t>370.82</t>
-  </si>
-  <si>
-    <t>56.00% (40.62%)</t>
-  </si>
-  <si>
-    <t>366.40</t>
-  </si>
-  <si>
-    <t>52.60% (43.74%)</t>
-  </si>
-  <si>
-    <t>766.72</t>
-  </si>
-  <si>
-    <t>93.50%</t>
-  </si>
-  <si>
-    <t>50.30% (46.38%)</t>
-  </si>
-  <si>
-    <t>679.35</t>
-  </si>
-  <si>
-    <t>54.90% (41.35%)</t>
-  </si>
-  <si>
-    <t>727.93</t>
-  </si>
-  <si>
-    <t>54.30% (41.30%)</t>
-  </si>
-  <si>
-    <t>737.32</t>
-  </si>
-  <si>
-    <t>92.50%</t>
-  </si>
-  <si>
-    <t>53.40% (42.89%)</t>
-  </si>
-  <si>
-    <t>752.61</t>
-  </si>
-  <si>
-    <t>48.60% (46.83%)</t>
-  </si>
-  <si>
-    <t>710.31</t>
-  </si>
-  <si>
-    <t>53.10% (43.09%)</t>
-  </si>
-  <si>
-    <t>731.95</t>
-  </si>
-  <si>
-    <t>93.30%</t>
-  </si>
-  <si>
-    <t>39.60% (56.82%)</t>
-  </si>
-  <si>
-    <t>615.00</t>
-  </si>
-  <si>
-    <t>39.40% (57.54%)</t>
-  </si>
-  <si>
-    <t>640.75</t>
-  </si>
-  <si>
-    <t>29.70% (67.72%)</t>
-  </si>
-  <si>
-    <t>558.17</t>
-  </si>
-  <si>
-    <t>92.00%</t>
-  </si>
-  <si>
-    <t>36.20% (60.74%)</t>
-  </si>
-  <si>
-    <t>580.92</t>
-  </si>
-  <si>
-    <t>92.20%</t>
+    <t>32.30% (64.70%)</t>
+  </si>
+  <si>
+    <t>665.41</t>
+  </si>
+  <si>
+    <t>91.50%</t>
   </si>
   <si>
     <t>textfooler</t>
@@ -370,9 +586,6 @@
     <t>651.52</t>
   </si>
   <si>
-    <t>92.70%</t>
-  </si>
-  <si>
     <t>701.05</t>
   </si>
   <si>
@@ -388,9 +601,6 @@
     <t>675.86</t>
   </si>
   <si>
-    <t>93.70%</t>
-  </si>
-  <si>
     <t>34.50% (62.34%)</t>
   </si>
   <si>
@@ -406,9 +616,6 @@
     <t>610.20</t>
   </si>
   <si>
-    <t>92.40%</t>
-  </si>
-  <si>
     <t>28.70% (68.84%)</t>
   </si>
   <si>
@@ -418,10 +625,88 @@
     <t>92.10%</t>
   </si>
   <si>
+    <t>41.00% (56.15%)</t>
+  </si>
+  <si>
+    <t>335.88</t>
+  </si>
+  <si>
+    <t>51.00% (44.75%)</t>
+  </si>
+  <si>
+    <t>330.69</t>
+  </si>
+  <si>
+    <t>52.00% (44.62%)</t>
+  </si>
+  <si>
+    <t>402.14</t>
+  </si>
+  <si>
+    <t>48.90% (48.09%)</t>
+  </si>
+  <si>
+    <t>357.44</t>
+  </si>
+  <si>
+    <t>55.20% (41.09%)</t>
+  </si>
+  <si>
+    <t>766.74</t>
+  </si>
+  <si>
+    <t>49.70% (47.01%)</t>
+  </si>
+  <si>
+    <t>683.33</t>
+  </si>
+  <si>
+    <t>50.60% (45.77%)</t>
+  </si>
+  <si>
+    <t>700.43</t>
+  </si>
+  <si>
+    <t>44.40% (52.31%)</t>
+  </si>
+  <si>
+    <t>683.13</t>
+  </si>
+  <si>
+    <t>39.30% (57.65%)</t>
+  </si>
+  <si>
+    <t>632.83</t>
+  </si>
+  <si>
+    <t>39.30% (57.00%)</t>
+  </si>
+  <si>
+    <t>618.76</t>
+  </si>
+  <si>
+    <t>41.90% (55.14%)</t>
+  </si>
+  <si>
+    <t>624.96</t>
+  </si>
+  <si>
+    <t>23.50% (74.34%)</t>
+  </si>
+  <si>
+    <t>473.14</t>
+  </si>
+  <si>
     <t>35.50% (61.29%)</t>
   </si>
   <si>
     <t>550.55</t>
+  </si>
+  <si>
+    <t>32.80% (64.35%)</t>
+  </si>
+  <si>
+    <t>572.00</t>
   </si>
 </sst>
 </file>
@@ -756,13 +1041,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -784,11 +1069,11 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -828,16 +1113,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -854,16 +1139,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -880,16 +1165,16 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -906,16 +1191,16 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -923,7 +1208,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -932,16 +1217,16 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -949,7 +1234,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -958,16 +1243,16 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -975,7 +1260,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -984,16 +1269,16 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1001,7 +1286,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
@@ -1010,16 +1295,16 @@
         <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1027,7 +1312,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
@@ -1036,68 +1321,68 @@
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1105,7 +1390,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>49</v>
@@ -1114,16 +1399,16 @@
         <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1131,7 +1416,7 @@
         <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>53</v>
@@ -1140,16 +1425,16 @@
         <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1157,7 +1442,7 @@
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>57</v>
@@ -1166,42 +1451,380 @@
         <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>135</v>
+      <c r="C30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/noise_defense_attack_result/paper_default setting/AGNEWS/results.xlsx
+++ b/noise_defense_attack_result/paper_default setting/AGNEWS/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="312">
   <si>
     <t>Models</t>
   </si>
@@ -22,64 +22,481 @@
     <t>Clean Accuracy (%)</t>
   </si>
   <si>
+    <t>textfooler</t>
+  </si>
+  <si>
+    <t>AuA(%) (ASR(%)↓)</t>
+  </si>
+  <si>
+    <t>Avg. Query↓</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>36.80% (60.93%)</t>
+  </si>
+  <si>
+    <t>317.27</t>
+  </si>
+  <si>
+    <t>94.20%</t>
+  </si>
+  <si>
+    <t>BERT_ASCC</t>
+  </si>
+  <si>
+    <t>41.20% (53.81%)</t>
+  </si>
+  <si>
+    <t>262.07</t>
+  </si>
+  <si>
+    <t>89.20%</t>
+  </si>
+  <si>
+    <t>BERT_FREELB</t>
+  </si>
+  <si>
+    <t>49.90% (47.14%)</t>
+  </si>
+  <si>
+    <t>356.69</t>
+  </si>
+  <si>
+    <t>94.40%</t>
+  </si>
+  <si>
+    <t>BERT_INFOBERT</t>
+  </si>
+  <si>
+    <t>47.50% (49.63%)</t>
+  </si>
+  <si>
+    <t>336.77</t>
+  </si>
+  <si>
+    <t>94.30%</t>
+  </si>
+  <si>
+    <t>BERT_MASK</t>
+  </si>
+  <si>
+    <t>54.60% (38.93%)</t>
+  </si>
+  <si>
+    <t>511.98</t>
+  </si>
+  <si>
+    <t>89.40%</t>
+  </si>
+  <si>
+    <t>BERT_SAFER</t>
+  </si>
+  <si>
+    <t>46.70% (50.05%)</t>
+  </si>
+  <si>
+    <t>333.17</t>
+  </si>
+  <si>
+    <t>93.50%</t>
+  </si>
+  <si>
+    <t>BERT_TMD</t>
+  </si>
+  <si>
+    <t>51.60% (44.81%)</t>
+  </si>
+  <si>
+    <t>744.87</t>
+  </si>
+  <si>
+    <t>BERT_logits_1.5</t>
+  </si>
+  <si>
+    <t>51.60% (44.64%)</t>
+  </si>
+  <si>
+    <t>708.70</t>
+  </si>
+  <si>
+    <t>93.20%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.2</t>
+  </si>
+  <si>
+    <t>44.70% (52.45%)</t>
+  </si>
+  <si>
+    <t>605.06</t>
+  </si>
+  <si>
+    <t>94.00%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.3</t>
+  </si>
+  <si>
+    <t>48.60% (48.35%)</t>
+  </si>
+  <si>
+    <t>652.88</t>
+  </si>
+  <si>
+    <t>94.10%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.4</t>
+  </si>
+  <si>
+    <t>48.20% (48.00%)</t>
+  </si>
+  <si>
+    <t>651.52</t>
+  </si>
+  <si>
+    <t>92.70%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_cls_0.8</t>
+  </si>
+  <si>
+    <t>50.10% (45.90%)</t>
+  </si>
+  <si>
+    <t>701.05</t>
+  </si>
+  <si>
+    <t>92.60%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_cls_0.9</t>
+  </si>
+  <si>
+    <t>45.50% (50.65%)</t>
+  </si>
+  <si>
+    <t>659.59</t>
+  </si>
+  <si>
+    <t>92.20%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_all_0.2</t>
+  </si>
+  <si>
+    <t>49.00% (47.71%)</t>
+  </si>
+  <si>
+    <t>675.86</t>
+  </si>
+  <si>
+    <t>93.70%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_all_0.3</t>
+  </si>
+  <si>
+    <t>34.50% (62.34%)</t>
+  </si>
+  <si>
+    <t>557.34</t>
+  </si>
+  <si>
+    <t>91.60%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_cls_0.6</t>
+  </si>
+  <si>
+    <t>38.90% (57.90%)</t>
+  </si>
+  <si>
+    <t>610.20</t>
+  </si>
+  <si>
+    <t>92.40%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_cls_0.7</t>
+  </si>
+  <si>
+    <t>28.70% (68.84%)</t>
+  </si>
+  <si>
+    <t>527.46</t>
+  </si>
+  <si>
+    <t>92.10%</t>
+  </si>
+  <si>
+    <t>ROBERTA</t>
+  </si>
+  <si>
+    <t>41.00% (56.15%)</t>
+  </si>
+  <si>
+    <t>335.88</t>
+  </si>
+  <si>
+    <t>ROBERTA_ASCC</t>
+  </si>
+  <si>
+    <t>51.00% (44.75%)</t>
+  </si>
+  <si>
+    <t>330.69</t>
+  </si>
+  <si>
+    <t>92.30%</t>
+  </si>
+  <si>
+    <t>ROBERTA_FREELB</t>
+  </si>
+  <si>
+    <t>52.00% (44.62%)</t>
+  </si>
+  <si>
+    <t>402.14</t>
+  </si>
+  <si>
+    <t>93.90%</t>
+  </si>
+  <si>
+    <t>ROBERTA_INFOBERT</t>
+  </si>
+  <si>
+    <t>48.90% (48.09%)</t>
+  </si>
+  <si>
+    <t>357.44</t>
+  </si>
+  <si>
+    <t>ROBERTA_MASK</t>
+  </si>
+  <si>
+    <t>54.20% (39.37%)</t>
+  </si>
+  <si>
+    <t>516.98</t>
+  </si>
+  <si>
+    <t>ROBERTA_SAFER</t>
+  </si>
+  <si>
+    <t>50.30% (46.43%)</t>
+  </si>
+  <si>
+    <t>337.81</t>
+  </si>
+  <si>
+    <t>ROBERTA_TMD</t>
+  </si>
+  <si>
+    <t>55.20% (41.09%)</t>
+  </si>
+  <si>
+    <t>766.74</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_all_0.2</t>
+  </si>
+  <si>
+    <t>49.70% (47.01%)</t>
+  </si>
+  <si>
+    <t>683.33</t>
+  </si>
+  <si>
+    <t>93.80%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_all_0.25</t>
+  </si>
+  <si>
+    <t>53.30% (42.81%)</t>
+  </si>
+  <si>
+    <t>717.31</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_all_0.3</t>
+  </si>
+  <si>
+    <t>50.60% (45.77%)</t>
+  </si>
+  <si>
+    <t>700.43</t>
+  </si>
+  <si>
+    <t>93.30%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_0.4</t>
+  </si>
+  <si>
+    <t>47.40% (49.14%)</t>
+  </si>
+  <si>
+    <t>679.36</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_0.5</t>
+  </si>
+  <si>
+    <t>712.78</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_0.55</t>
+  </si>
+  <si>
+    <t>50.20% (46.31%)</t>
+  </si>
+  <si>
+    <t>718.93</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_0.6</t>
+  </si>
+  <si>
+    <t>49.00% (47.59%)</t>
+  </si>
+  <si>
+    <t>710.13</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_0.7</t>
+  </si>
+  <si>
+    <t>48.70% (48.03%)</t>
+  </si>
+  <si>
+    <t>700.33</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_0.8</t>
+  </si>
+  <si>
+    <t>44.40% (52.31%)</t>
+  </si>
+  <si>
+    <t>683.13</t>
+  </si>
+  <si>
+    <t>93.10%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_0.9</t>
+  </si>
+  <si>
+    <t>39.30% (57.65%)</t>
+  </si>
+  <si>
+    <t>632.83</t>
+  </si>
+  <si>
+    <t>92.80%</t>
+  </si>
+  <si>
+    <t>ROBERTA_pre_att_all_0.2</t>
+  </si>
+  <si>
+    <t>39.30% (57.00%)</t>
+  </si>
+  <si>
+    <t>618.76</t>
+  </si>
+  <si>
+    <t>91.40%</t>
+  </si>
+  <si>
+    <t>ROBERTA_pre_att_cls_0.3</t>
+  </si>
+  <si>
+    <t>41.90% (55.14%)</t>
+  </si>
+  <si>
+    <t>624.96</t>
+  </si>
+  <si>
+    <t>93.40%</t>
+  </si>
+  <si>
+    <t>ROBERTA_pre_att_cls_0.4</t>
+  </si>
+  <si>
+    <t>23.50% (74.34%)</t>
+  </si>
+  <si>
+    <t>473.14</t>
+  </si>
+  <si>
+    <t>BERT_post_att_cls_1</t>
+  </si>
+  <si>
+    <t>35.50% (61.29%)</t>
+  </si>
+  <si>
+    <t>550.55</t>
+  </si>
+  <si>
+    <t>91.70%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_1</t>
+  </si>
+  <si>
+    <t>32.80% (64.35%)</t>
+  </si>
+  <si>
+    <t>572.00</t>
+  </si>
+  <si>
+    <t>92.00%</t>
+  </si>
+  <si>
     <t>bertattack</t>
   </si>
   <si>
-    <t>AuA(%) (ASR(%)↓)</t>
-  </si>
-  <si>
-    <t>Avg. Query↓</t>
-  </si>
-  <si>
-    <t>BERT</t>
-  </si>
-  <si>
     <t>46.50% (50.64%)</t>
   </si>
   <si>
     <t>337.84</t>
   </si>
   <si>
-    <t>94.20%</t>
-  </si>
-  <si>
-    <t>BERT_ASCC</t>
-  </si>
-  <si>
     <t>45.90% (48.54%)</t>
   </si>
   <si>
     <t>263.59</t>
   </si>
   <si>
-    <t>89.20%</t>
-  </si>
-  <si>
-    <t>BERT_FREELB</t>
-  </si>
-  <si>
     <t>52.00% (44.92%)</t>
   </si>
   <si>
     <t>370.82</t>
   </si>
   <si>
-    <t>94.40%</t>
-  </si>
-  <si>
-    <t>BERT_INFOBERT</t>
-  </si>
-  <si>
     <t>56.00% (40.62%)</t>
   </si>
   <si>
     <t>366.40</t>
   </si>
   <si>
-    <t>94.30%</t>
-  </si>
-  <si>
-    <t>BERT_TMD</t>
+    <t>61.10% (31.73%)</t>
+  </si>
+  <si>
+    <t>595.57</t>
+  </si>
+  <si>
+    <t>89.50%</t>
+  </si>
+  <si>
+    <t>51.40% (45.03%)</t>
+  </si>
+  <si>
+    <t>357.47</t>
   </si>
   <si>
     <t>52.60% (43.74%)</t>
@@ -88,10 +505,10 @@
     <t>766.72</t>
   </si>
   <si>
-    <t>93.50%</t>
-  </si>
-  <si>
-    <t>BERT_post_att_all_0.2</t>
+    <t>54.40% (41.82%)</t>
+  </si>
+  <si>
+    <t>746.89</t>
   </si>
   <si>
     <t>50.30% (46.38%)</t>
@@ -100,12 +517,6 @@
     <t>679.35</t>
   </si>
   <si>
-    <t>93.80%</t>
-  </si>
-  <si>
-    <t>BERT_post_att_all_0.3</t>
-  </si>
-  <si>
     <t>54.90% (41.35%)</t>
   </si>
   <si>
@@ -115,9 +526,6 @@
     <t>93.60%</t>
   </si>
   <si>
-    <t>BERT_post_att_all_0.4</t>
-  </si>
-  <si>
     <t>54.30% (41.30%)</t>
   </si>
   <si>
@@ -127,118 +535,79 @@
     <t>92.50%</t>
   </si>
   <si>
-    <t>BERT_post_att_cls_0.8</t>
-  </si>
-  <si>
     <t>53.40% (42.89%)</t>
   </si>
   <si>
     <t>752.61</t>
   </si>
   <si>
-    <t>BERT_post_att_cls_0.9</t>
-  </si>
-  <si>
     <t>48.60% (46.83%)</t>
   </si>
   <si>
     <t>710.31</t>
   </si>
   <si>
-    <t>91.40%</t>
-  </si>
-  <si>
-    <t>BERT_pre_att_all_0.2</t>
-  </si>
-  <si>
     <t>53.10% (43.09%)</t>
   </si>
   <si>
     <t>731.95</t>
   </si>
   <si>
-    <t>93.30%</t>
-  </si>
-  <si>
-    <t>BERT_pre_att_all_0.3</t>
-  </si>
-  <si>
     <t>39.60% (56.82%)</t>
   </si>
   <si>
     <t>615.00</t>
   </si>
   <si>
-    <t>91.70%</t>
-  </si>
-  <si>
-    <t>BERT_pre_att_cls_0.6</t>
-  </si>
-  <si>
     <t>39.40% (57.54%)</t>
   </si>
   <si>
     <t>640.75</t>
   </si>
   <si>
-    <t>92.80%</t>
-  </si>
-  <si>
-    <t>BERT_pre_att_cls_0.7</t>
-  </si>
-  <si>
     <t>29.70% (67.72%)</t>
   </si>
   <si>
     <t>558.17</t>
   </si>
   <si>
-    <t>92.00%</t>
-  </si>
-  <si>
-    <t>ROBERTA</t>
-  </si>
-  <si>
     <t>47.30% (49.41%)</t>
   </si>
   <si>
     <t>372.99</t>
   </si>
   <si>
-    <t>ROBERTA_ASCC</t>
-  </si>
-  <si>
     <t>55.70% (39.65%)</t>
   </si>
   <si>
     <t>374.58</t>
   </si>
   <si>
-    <t>92.30%</t>
-  </si>
-  <si>
-    <t>ROBERTA_FREELB</t>
-  </si>
-  <si>
     <t>58.20% (38.02%)</t>
   </si>
   <si>
     <t>442.97</t>
   </si>
   <si>
-    <t>93.90%</t>
-  </si>
-  <si>
-    <t>ROBERTA_INFOBERT</t>
-  </si>
-  <si>
     <t>55.00% (41.61%)</t>
   </si>
   <si>
     <t>397.35</t>
   </si>
   <si>
-    <t>ROBERTA_TMD</t>
+    <t>60.00% (32.43%)</t>
+  </si>
+  <si>
+    <t>594.93</t>
+  </si>
+  <si>
+    <t>88.80%</t>
+  </si>
+  <si>
+    <t>53.20% (43.22%)</t>
+  </si>
+  <si>
+    <t>357.56</t>
   </si>
   <si>
     <t>57.90% (38.14%)</t>
@@ -247,19 +616,16 @@
     <t>805.19</t>
   </si>
   <si>
-    <t>ROBERTA_post_att_all_0.2</t>
-  </si>
-  <si>
     <t>57.40% (38.74%)</t>
   </si>
   <si>
     <t>772.54</t>
   </si>
   <si>
-    <t>93.70%</t>
-  </si>
-  <si>
-    <t>ROBERTA_post_att_all_0.3</t>
+    <t>57.80% (38.38%)</t>
+  </si>
+  <si>
+    <t>767.47</t>
   </si>
   <si>
     <t>54.70% (41.06%)</t>
@@ -268,7 +634,34 @@
     <t>740.27</t>
   </si>
   <si>
-    <t>ROBERTA_post_att_cls_0.8</t>
+    <t>56.10% (40.13%)</t>
+  </si>
+  <si>
+    <t>768.31</t>
+  </si>
+  <si>
+    <t>57.60% (38.66%)</t>
+  </si>
+  <si>
+    <t>797.03</t>
+  </si>
+  <si>
+    <t>59.60% (36.32%)</t>
+  </si>
+  <si>
+    <t>813.69</t>
+  </si>
+  <si>
+    <t>57.00% (38.84%)</t>
+  </si>
+  <si>
+    <t>792.23</t>
+  </si>
+  <si>
+    <t>54.00% (42.31%)</t>
+  </si>
+  <si>
+    <t>772.13</t>
   </si>
   <si>
     <t>49.40% (47.28%)</t>
@@ -277,21 +670,12 @@
     <t>733.27</t>
   </si>
   <si>
-    <t>ROBERTA_post_att_cls_0.9</t>
-  </si>
-  <si>
     <t>42.30% (54.22%)</t>
   </si>
   <si>
     <t>679.21</t>
   </si>
   <si>
-    <t>92.40%</t>
-  </si>
-  <si>
-    <t>ROBERTA_pre_att_all_0.2</t>
-  </si>
-  <si>
     <t>46.10% (50.43%)</t>
   </si>
   <si>
@@ -301,21 +685,12 @@
     <t>93.00%</t>
   </si>
   <si>
-    <t>ROBERTA_pre_att_cls_0.3</t>
-  </si>
-  <si>
     <t>45.60% (50.81%)</t>
   </si>
   <si>
     <t>681.12</t>
   </si>
   <si>
-    <t>92.70%</t>
-  </si>
-  <si>
-    <t>ROBERTA_pre_att_cls_0.4</t>
-  </si>
-  <si>
     <t>25.80% (72.23%)</t>
   </si>
   <si>
@@ -325,21 +700,12 @@
     <t>92.90%</t>
   </si>
   <si>
-    <t>BERT_post_att_cls_1</t>
-  </si>
-  <si>
     <t>36.20% (60.74%)</t>
   </si>
   <si>
     <t>580.92</t>
   </si>
   <si>
-    <t>92.20%</t>
-  </si>
-  <si>
-    <t>ROBERTA_post_att_cls_1</t>
-  </si>
-  <si>
     <t>37.50% (59.19%)</t>
   </si>
   <si>
@@ -376,12 +742,33 @@
     <t>373.83</t>
   </si>
   <si>
+    <t>52.50% (41.60%)</t>
+  </si>
+  <si>
+    <t>582.21</t>
+  </si>
+  <si>
+    <t>89.90%</t>
+  </si>
+  <si>
+    <t>43.30% (53.74%)</t>
+  </si>
+  <si>
+    <t>370.77</t>
+  </si>
+  <si>
     <t>47.80% (49.04%)</t>
   </si>
   <si>
     <t>833.43</t>
   </si>
   <si>
+    <t>49.90% (46.11%)</t>
+  </si>
+  <si>
+    <t>817.57</t>
+  </si>
+  <si>
     <t>44.00% (52.99%)</t>
   </si>
   <si>
@@ -400,15 +787,9 @@
     <t>745.41</t>
   </si>
   <si>
-    <t>50.10% (45.90%)</t>
-  </si>
-  <si>
     <t>819.44</t>
   </si>
   <si>
-    <t>92.60%</t>
-  </si>
-  <si>
     <t>44.40% (52.72%)</t>
   </si>
   <si>
@@ -463,6 +844,18 @@
     <t>394.56</t>
   </si>
   <si>
+    <t>52.30% (41.50%)</t>
+  </si>
+  <si>
+    <t>575.94</t>
+  </si>
+  <si>
+    <t>47.70% (49.15%)</t>
+  </si>
+  <si>
+    <t>377.67</t>
+  </si>
+  <si>
     <t>52.80% (43.59%)</t>
   </si>
   <si>
@@ -475,18 +868,51 @@
     <t>795.98</t>
   </si>
   <si>
+    <t>51.70% (44.88%)</t>
+  </si>
+  <si>
+    <t>804.99</t>
+  </si>
+  <si>
     <t>796.93</t>
   </si>
   <si>
+    <t>46.20% (50.59%)</t>
+  </si>
+  <si>
+    <t>782.56</t>
+  </si>
+  <si>
+    <t>48.70% (47.97%)</t>
+  </si>
+  <si>
+    <t>820.29</t>
+  </si>
+  <si>
+    <t>49.50% (47.17%)</t>
+  </si>
+  <si>
+    <t>823.36</t>
+  </si>
+  <si>
+    <t>49.00% (47.37%)</t>
+  </si>
+  <si>
+    <t>835.54</t>
+  </si>
+  <si>
+    <t>47.40% (49.20%)</t>
+  </si>
+  <si>
+    <t>816.18</t>
+  </si>
+  <si>
     <t>41.00% (55.96%)</t>
   </si>
   <si>
     <t>755.71</t>
   </si>
   <si>
-    <t>93.10%</t>
-  </si>
-  <si>
     <t>36.50% (60.67%)</t>
   </si>
   <si>
@@ -505,9 +931,6 @@
     <t>721.77</t>
   </si>
   <si>
-    <t>93.40%</t>
-  </si>
-  <si>
     <t>23.00% (75.08%)</t>
   </si>
   <si>
@@ -527,186 +950,6 @@
   </si>
   <si>
     <t>91.50%</t>
-  </si>
-  <si>
-    <t>textfooler</t>
-  </si>
-  <si>
-    <t>36.80% (60.93%)</t>
-  </si>
-  <si>
-    <t>317.27</t>
-  </si>
-  <si>
-    <t>41.20% (53.81%)</t>
-  </si>
-  <si>
-    <t>262.07</t>
-  </si>
-  <si>
-    <t>49.90% (47.14%)</t>
-  </si>
-  <si>
-    <t>356.69</t>
-  </si>
-  <si>
-    <t>47.50% (49.63%)</t>
-  </si>
-  <si>
-    <t>336.77</t>
-  </si>
-  <si>
-    <t>51.60% (44.81%)</t>
-  </si>
-  <si>
-    <t>744.87</t>
-  </si>
-  <si>
-    <t>44.70% (52.45%)</t>
-  </si>
-  <si>
-    <t>605.06</t>
-  </si>
-  <si>
-    <t>94.00%</t>
-  </si>
-  <si>
-    <t>48.60% (48.35%)</t>
-  </si>
-  <si>
-    <t>652.88</t>
-  </si>
-  <si>
-    <t>94.10%</t>
-  </si>
-  <si>
-    <t>48.20% (48.00%)</t>
-  </si>
-  <si>
-    <t>651.52</t>
-  </si>
-  <si>
-    <t>701.05</t>
-  </si>
-  <si>
-    <t>45.50% (50.65%)</t>
-  </si>
-  <si>
-    <t>659.59</t>
-  </si>
-  <si>
-    <t>49.00% (47.71%)</t>
-  </si>
-  <si>
-    <t>675.86</t>
-  </si>
-  <si>
-    <t>34.50% (62.34%)</t>
-  </si>
-  <si>
-    <t>557.34</t>
-  </si>
-  <si>
-    <t>91.60%</t>
-  </si>
-  <si>
-    <t>38.90% (57.90%)</t>
-  </si>
-  <si>
-    <t>610.20</t>
-  </si>
-  <si>
-    <t>28.70% (68.84%)</t>
-  </si>
-  <si>
-    <t>527.46</t>
-  </si>
-  <si>
-    <t>92.10%</t>
-  </si>
-  <si>
-    <t>41.00% (56.15%)</t>
-  </si>
-  <si>
-    <t>335.88</t>
-  </si>
-  <si>
-    <t>51.00% (44.75%)</t>
-  </si>
-  <si>
-    <t>330.69</t>
-  </si>
-  <si>
-    <t>52.00% (44.62%)</t>
-  </si>
-  <si>
-    <t>402.14</t>
-  </si>
-  <si>
-    <t>48.90% (48.09%)</t>
-  </si>
-  <si>
-    <t>357.44</t>
-  </si>
-  <si>
-    <t>55.20% (41.09%)</t>
-  </si>
-  <si>
-    <t>766.74</t>
-  </si>
-  <si>
-    <t>49.70% (47.01%)</t>
-  </si>
-  <si>
-    <t>683.33</t>
-  </si>
-  <si>
-    <t>50.60% (45.77%)</t>
-  </si>
-  <si>
-    <t>700.43</t>
-  </si>
-  <si>
-    <t>44.40% (52.31%)</t>
-  </si>
-  <si>
-    <t>683.13</t>
-  </si>
-  <si>
-    <t>39.30% (57.65%)</t>
-  </si>
-  <si>
-    <t>632.83</t>
-  </si>
-  <si>
-    <t>39.30% (57.00%)</t>
-  </si>
-  <si>
-    <t>618.76</t>
-  </si>
-  <si>
-    <t>41.90% (55.14%)</t>
-  </si>
-  <si>
-    <t>624.96</t>
-  </si>
-  <si>
-    <t>23.50% (74.34%)</t>
-  </si>
-  <si>
-    <t>473.14</t>
-  </si>
-  <si>
-    <t>35.50% (61.29%)</t>
-  </si>
-  <si>
-    <t>550.55</t>
-  </si>
-  <si>
-    <t>32.80% (64.35%)</t>
-  </si>
-  <si>
-    <t>572.00</t>
   </si>
 </sst>
 </file>
@@ -1041,13 +1284,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -1069,11 +1312,11 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -1113,16 +1356,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1139,16 +1382,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1165,16 +1408,16 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1191,16 +1434,16 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1208,7 +1451,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -1217,16 +1460,16 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1234,7 +1477,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -1243,16 +1486,16 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1260,7 +1503,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -1269,68 +1512,68 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1338,7 +1581,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>41</v>
@@ -1347,16 +1590,16 @@
         <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1364,7 +1607,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>45</v>
@@ -1373,16 +1616,16 @@
         <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1390,7 +1633,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>197</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>49</v>
@@ -1399,16 +1642,16 @@
         <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1416,7 +1659,7 @@
         <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>53</v>
@@ -1425,16 +1668,16 @@
         <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1442,7 +1685,7 @@
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>57</v>
@@ -1451,16 +1694,16 @@
         <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1468,7 +1711,7 @@
         <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>61</v>
@@ -1477,250 +1720,250 @@
         <v>62</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1728,7 +1971,7 @@
         <v>95</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>96</v>
@@ -1737,16 +1980,16 @@
         <v>97</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1754,7 +1997,7 @@
         <v>99</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>100</v>
@@ -1763,68 +2006,354 @@
         <v>101</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="G40" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>230</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/noise_defense_attack_result/paper_default setting/AGNEWS/results.xlsx
+++ b/noise_defense_attack_result/paper_default setting/AGNEWS/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="363">
   <si>
     <t>Models</t>
   </si>
@@ -112,6 +112,39 @@
     <t>744.87</t>
   </si>
   <si>
+    <t>BERT_input_noise_0.4</t>
+  </si>
+  <si>
+    <t>42.90% (54.60%)</t>
+  </si>
+  <si>
+    <t>581.86</t>
+  </si>
+  <si>
+    <t>94.50%</t>
+  </si>
+  <si>
+    <t>BERT_input_noise_0.5</t>
+  </si>
+  <si>
+    <t>45.50% (51.49%)</t>
+  </si>
+  <si>
+    <t>638.84</t>
+  </si>
+  <si>
+    <t>93.80%</t>
+  </si>
+  <si>
+    <t>BERT_input_noise_0.6</t>
+  </si>
+  <si>
+    <t>42.20% (54.87%)</t>
+  </si>
+  <si>
+    <t>620.92</t>
+  </si>
+  <si>
     <t>BERT_logits_1.5</t>
   </si>
   <si>
@@ -301,6 +334,51 @@
     <t>766.74</t>
   </si>
   <si>
+    <t>ROBERTA_input_noise_0.1</t>
+  </si>
+  <si>
+    <t>45.80% (51.17%)</t>
+  </si>
+  <si>
+    <t>518.35</t>
+  </si>
+  <si>
+    <t>ROBERTA_input_noise_0.2</t>
+  </si>
+  <si>
+    <t>48.50% (48.07%)</t>
+  </si>
+  <si>
+    <t>645.89</t>
+  </si>
+  <si>
+    <t>93.40%</t>
+  </si>
+  <si>
+    <t>ROBERTA_input_noise_0.3</t>
+  </si>
+  <si>
+    <t>44.70% (51.68%)</t>
+  </si>
+  <si>
+    <t>641.38</t>
+  </si>
+  <si>
+    <t>92.50%</t>
+  </si>
+  <si>
+    <t>ROBERTA_input_noise_0.4</t>
+  </si>
+  <si>
+    <t>20.70% (76.82%)</t>
+  </si>
+  <si>
+    <t>427.59</t>
+  </si>
+  <si>
+    <t>89.30%</t>
+  </si>
+  <si>
     <t>ROBERTA_post_att_all_0.2</t>
   </si>
   <si>
@@ -310,9 +388,6 @@
     <t>683.33</t>
   </si>
   <si>
-    <t>93.80%</t>
-  </si>
-  <si>
     <t>ROBERTA_post_att_all_0.25</t>
   </si>
   <si>
@@ -421,9 +496,6 @@
     <t>624.96</t>
   </si>
   <si>
-    <t>93.40%</t>
-  </si>
-  <si>
     <t>ROBERTA_pre_att_cls_0.4</t>
   </si>
   <si>
@@ -457,6 +529,294 @@
     <t>92.00%</t>
   </si>
   <si>
+    <t>textbugger</t>
+  </si>
+  <si>
+    <t>35.20% (62.63%)</t>
+  </si>
+  <si>
+    <t>351.92</t>
+  </si>
+  <si>
+    <t>39.30% (55.94%)</t>
+  </si>
+  <si>
+    <t>284.58</t>
+  </si>
+  <si>
+    <t>47.30% (49.89%)</t>
+  </si>
+  <si>
+    <t>394.19</t>
+  </si>
+  <si>
+    <t>45.20% (52.07%)</t>
+  </si>
+  <si>
+    <t>373.83</t>
+  </si>
+  <si>
+    <t>52.50% (41.60%)</t>
+  </si>
+  <si>
+    <t>582.21</t>
+  </si>
+  <si>
+    <t>89.90%</t>
+  </si>
+  <si>
+    <t>43.30% (53.74%)</t>
+  </si>
+  <si>
+    <t>370.77</t>
+  </si>
+  <si>
+    <t>93.60%</t>
+  </si>
+  <si>
+    <t>47.80% (49.04%)</t>
+  </si>
+  <si>
+    <t>833.43</t>
+  </si>
+  <si>
+    <t>43.00% (54.01%)</t>
+  </si>
+  <si>
+    <t>663.65</t>
+  </si>
+  <si>
+    <t>44.80% (52.03%)</t>
+  </si>
+  <si>
+    <t>711.12</t>
+  </si>
+  <si>
+    <t>41.80% (54.76%)</t>
+  </si>
+  <si>
+    <t>708.89</t>
+  </si>
+  <si>
+    <t>49.90% (46.11%)</t>
+  </si>
+  <si>
+    <t>817.57</t>
+  </si>
+  <si>
+    <t>44.00% (52.99%)</t>
+  </si>
+  <si>
+    <t>679.69</t>
+  </si>
+  <si>
+    <t>45.60% (50.97%)</t>
+  </si>
+  <si>
+    <t>738.90</t>
+  </si>
+  <si>
+    <t>93.00%</t>
+  </si>
+  <si>
+    <t>47.30% (49.03%)</t>
+  </si>
+  <si>
+    <t>745.41</t>
+  </si>
+  <si>
+    <t>819.44</t>
+  </si>
+  <si>
+    <t>44.40% (52.72%)</t>
+  </si>
+  <si>
+    <t>734.27</t>
+  </si>
+  <si>
+    <t>44.80% (52.29%)</t>
+  </si>
+  <si>
+    <t>745.68</t>
+  </si>
+  <si>
+    <t>31.40% (65.76%)</t>
+  </si>
+  <si>
+    <t>630.81</t>
+  </si>
+  <si>
+    <t>34.70% (62.41%)</t>
+  </si>
+  <si>
+    <t>670.61</t>
+  </si>
+  <si>
+    <t>26.60% (71.18%)</t>
+  </si>
+  <si>
+    <t>597.46</t>
+  </si>
+  <si>
+    <t>38.40% (58.93%)</t>
+  </si>
+  <si>
+    <t>371.20</t>
+  </si>
+  <si>
+    <t>49.50% (46.37%)</t>
+  </si>
+  <si>
+    <t>372.91</t>
+  </si>
+  <si>
+    <t>50.50% (46.22%)</t>
+  </si>
+  <si>
+    <t>448.97</t>
+  </si>
+  <si>
+    <t>47.00% (50.11%)</t>
+  </si>
+  <si>
+    <t>394.56</t>
+  </si>
+  <si>
+    <t>52.30% (41.50%)</t>
+  </si>
+  <si>
+    <t>575.94</t>
+  </si>
+  <si>
+    <t>47.70% (49.15%)</t>
+  </si>
+  <si>
+    <t>377.67</t>
+  </si>
+  <si>
+    <t>52.80% (43.59%)</t>
+  </si>
+  <si>
+    <t>878.22</t>
+  </si>
+  <si>
+    <t>43.20% (53.90%)</t>
+  </si>
+  <si>
+    <t>586.24</t>
+  </si>
+  <si>
+    <t>48.90% (47.70%)</t>
+  </si>
+  <si>
+    <t>752.97</t>
+  </si>
+  <si>
+    <t>42.20% (54.43%)</t>
+  </si>
+  <si>
+    <t>746.67</t>
+  </si>
+  <si>
+    <t>18.60% (79.10%)</t>
+  </si>
+  <si>
+    <t>467.17</t>
+  </si>
+  <si>
+    <t>89.00%</t>
+  </si>
+  <si>
+    <t>50.70% (45.66%)</t>
+  </si>
+  <si>
+    <t>795.98</t>
+  </si>
+  <si>
+    <t>51.70% (44.88%)</t>
+  </si>
+  <si>
+    <t>804.99</t>
+  </si>
+  <si>
+    <t>796.93</t>
+  </si>
+  <si>
+    <t>46.20% (50.59%)</t>
+  </si>
+  <si>
+    <t>782.56</t>
+  </si>
+  <si>
+    <t>48.70% (47.97%)</t>
+  </si>
+  <si>
+    <t>820.29</t>
+  </si>
+  <si>
+    <t>49.50% (47.17%)</t>
+  </si>
+  <si>
+    <t>823.36</t>
+  </si>
+  <si>
+    <t>49.00% (47.37%)</t>
+  </si>
+  <si>
+    <t>835.54</t>
+  </si>
+  <si>
+    <t>47.40% (49.20%)</t>
+  </si>
+  <si>
+    <t>816.18</t>
+  </si>
+  <si>
+    <t>41.00% (55.96%)</t>
+  </si>
+  <si>
+    <t>755.71</t>
+  </si>
+  <si>
+    <t>36.50% (60.67%)</t>
+  </si>
+  <si>
+    <t>723.79</t>
+  </si>
+  <si>
+    <t>40.80% (55.75%)</t>
+  </si>
+  <si>
+    <t>726.04</t>
+  </si>
+  <si>
+    <t>40.70% (56.42%)</t>
+  </si>
+  <si>
+    <t>721.77</t>
+  </si>
+  <si>
+    <t>23.00% (75.08%)</t>
+  </si>
+  <si>
+    <t>543.95</t>
+  </si>
+  <si>
+    <t>33.40% (63.46%)</t>
+  </si>
+  <si>
+    <t>617.49</t>
+  </si>
+  <si>
+    <t>32.30% (64.70%)</t>
+  </si>
+  <si>
+    <t>665.41</t>
+  </si>
+  <si>
+    <t>91.50%</t>
+  </si>
+  <si>
     <t>bertattack</t>
   </si>
   <si>
@@ -505,6 +865,24 @@
     <t>766.72</t>
   </si>
   <si>
+    <t>50.50% (46.10%)</t>
+  </si>
+  <si>
+    <t>652.46</t>
+  </si>
+  <si>
+    <t>51.10% (45.23%)</t>
+  </si>
+  <si>
+    <t>681.39</t>
+  </si>
+  <si>
+    <t>48.40% (48.40%)</t>
+  </si>
+  <si>
+    <t>678.38</t>
+  </si>
+  <si>
     <t>54.40% (41.82%)</t>
   </si>
   <si>
@@ -523,18 +901,12 @@
     <t>727.93</t>
   </si>
   <si>
-    <t>93.60%</t>
-  </si>
-  <si>
     <t>54.30% (41.30%)</t>
   </si>
   <si>
     <t>737.32</t>
   </si>
   <si>
-    <t>92.50%</t>
-  </si>
-  <si>
     <t>53.40% (42.89%)</t>
   </si>
   <si>
@@ -616,6 +988,27 @@
     <t>805.19</t>
   </si>
   <si>
+    <t>587.38</t>
+  </si>
+  <si>
+    <t>54.50% (41.90%)</t>
+  </si>
+  <si>
+    <t>707.38</t>
+  </si>
+  <si>
+    <t>43.90% (52.85%)</t>
+  </si>
+  <si>
+    <t>680.89</t>
+  </si>
+  <si>
+    <t>24.20% (73.08%)</t>
+  </si>
+  <si>
+    <t>465.13</t>
+  </si>
+  <si>
     <t>57.40% (38.74%)</t>
   </si>
   <si>
@@ -682,9 +1075,6 @@
     <t>672.77</t>
   </si>
   <si>
-    <t>93.00%</t>
-  </si>
-  <si>
     <t>45.60% (50.81%)</t>
   </si>
   <si>
@@ -713,243 +1103,6 @@
   </si>
   <si>
     <t>91.90%</t>
-  </si>
-  <si>
-    <t>textbugger</t>
-  </si>
-  <si>
-    <t>35.20% (62.63%)</t>
-  </si>
-  <si>
-    <t>351.92</t>
-  </si>
-  <si>
-    <t>39.30% (55.94%)</t>
-  </si>
-  <si>
-    <t>284.58</t>
-  </si>
-  <si>
-    <t>47.30% (49.89%)</t>
-  </si>
-  <si>
-    <t>394.19</t>
-  </si>
-  <si>
-    <t>45.20% (52.07%)</t>
-  </si>
-  <si>
-    <t>373.83</t>
-  </si>
-  <si>
-    <t>52.50% (41.60%)</t>
-  </si>
-  <si>
-    <t>582.21</t>
-  </si>
-  <si>
-    <t>89.90%</t>
-  </si>
-  <si>
-    <t>43.30% (53.74%)</t>
-  </si>
-  <si>
-    <t>370.77</t>
-  </si>
-  <si>
-    <t>47.80% (49.04%)</t>
-  </si>
-  <si>
-    <t>833.43</t>
-  </si>
-  <si>
-    <t>49.90% (46.11%)</t>
-  </si>
-  <si>
-    <t>817.57</t>
-  </si>
-  <si>
-    <t>44.00% (52.99%)</t>
-  </si>
-  <si>
-    <t>679.69</t>
-  </si>
-  <si>
-    <t>45.60% (50.97%)</t>
-  </si>
-  <si>
-    <t>738.90</t>
-  </si>
-  <si>
-    <t>47.30% (49.03%)</t>
-  </si>
-  <si>
-    <t>745.41</t>
-  </si>
-  <si>
-    <t>819.44</t>
-  </si>
-  <si>
-    <t>44.40% (52.72%)</t>
-  </si>
-  <si>
-    <t>734.27</t>
-  </si>
-  <si>
-    <t>44.80% (52.29%)</t>
-  </si>
-  <si>
-    <t>745.68</t>
-  </si>
-  <si>
-    <t>31.40% (65.76%)</t>
-  </si>
-  <si>
-    <t>630.81</t>
-  </si>
-  <si>
-    <t>34.70% (62.41%)</t>
-  </si>
-  <si>
-    <t>670.61</t>
-  </si>
-  <si>
-    <t>26.60% (71.18%)</t>
-  </si>
-  <si>
-    <t>597.46</t>
-  </si>
-  <si>
-    <t>38.40% (58.93%)</t>
-  </si>
-  <si>
-    <t>371.20</t>
-  </si>
-  <si>
-    <t>49.50% (46.37%)</t>
-  </si>
-  <si>
-    <t>372.91</t>
-  </si>
-  <si>
-    <t>50.50% (46.22%)</t>
-  </si>
-  <si>
-    <t>448.97</t>
-  </si>
-  <si>
-    <t>47.00% (50.11%)</t>
-  </si>
-  <si>
-    <t>394.56</t>
-  </si>
-  <si>
-    <t>52.30% (41.50%)</t>
-  </si>
-  <si>
-    <t>575.94</t>
-  </si>
-  <si>
-    <t>47.70% (49.15%)</t>
-  </si>
-  <si>
-    <t>377.67</t>
-  </si>
-  <si>
-    <t>52.80% (43.59%)</t>
-  </si>
-  <si>
-    <t>878.22</t>
-  </si>
-  <si>
-    <t>50.70% (45.66%)</t>
-  </si>
-  <si>
-    <t>795.98</t>
-  </si>
-  <si>
-    <t>51.70% (44.88%)</t>
-  </si>
-  <si>
-    <t>804.99</t>
-  </si>
-  <si>
-    <t>796.93</t>
-  </si>
-  <si>
-    <t>46.20% (50.59%)</t>
-  </si>
-  <si>
-    <t>782.56</t>
-  </si>
-  <si>
-    <t>48.70% (47.97%)</t>
-  </si>
-  <si>
-    <t>820.29</t>
-  </si>
-  <si>
-    <t>49.50% (47.17%)</t>
-  </si>
-  <si>
-    <t>823.36</t>
-  </si>
-  <si>
-    <t>49.00% (47.37%)</t>
-  </si>
-  <si>
-    <t>835.54</t>
-  </si>
-  <si>
-    <t>47.40% (49.20%)</t>
-  </si>
-  <si>
-    <t>816.18</t>
-  </si>
-  <si>
-    <t>41.00% (55.96%)</t>
-  </si>
-  <si>
-    <t>755.71</t>
-  </si>
-  <si>
-    <t>36.50% (60.67%)</t>
-  </si>
-  <si>
-    <t>723.79</t>
-  </si>
-  <si>
-    <t>40.80% (55.75%)</t>
-  </si>
-  <si>
-    <t>726.04</t>
-  </si>
-  <si>
-    <t>40.70% (56.42%)</t>
-  </si>
-  <si>
-    <t>721.77</t>
-  </si>
-  <si>
-    <t>23.00% (75.08%)</t>
-  </si>
-  <si>
-    <t>543.95</t>
-  </si>
-  <si>
-    <t>33.40% (63.46%)</t>
-  </si>
-  <si>
-    <t>617.49</t>
-  </si>
-  <si>
-    <t>32.30% (64.70%)</t>
-  </si>
-  <si>
-    <t>665.41</t>
-  </si>
-  <si>
-    <t>91.50%</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,11 +1465,11 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -1356,16 +1509,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1382,16 +1535,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1408,16 +1561,16 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1434,16 +1587,16 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1451,7 +1604,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -1460,16 +1613,16 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1477,7 +1630,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -1486,16 +1639,16 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1503,7 +1656,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -1512,16 +1665,16 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1529,7 +1682,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1538,16 +1691,16 @@
         <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1555,7 +1708,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>37</v>
@@ -1564,16 +1717,16 @@
         <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1581,7 +1734,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>41</v>
@@ -1590,224 +1743,224 @@
         <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
+        <v>291</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1815,7 +1968,7 @@
         <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>76</v>
@@ -1824,16 +1977,16 @@
         <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1841,7 +1994,7 @@
         <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>80</v>
@@ -1850,16 +2003,16 @@
         <v>81</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1867,7 +2020,7 @@
         <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>84</v>
@@ -1876,16 +2029,16 @@
         <v>85</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1893,7 +2046,7 @@
         <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>87</v>
@@ -1902,146 +2055,146 @@
         <v>88</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>105</v>
+        <v>319</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>49</v>
+        <v>322</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2058,16 +2211,16 @@
         <v>108</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2075,207 +2228,207 @@
         <v>109</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2283,7 +2436,7 @@
         <v>136</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>137</v>
@@ -2292,16 +2445,16 @@
         <v>138</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2309,7 +2462,7 @@
         <v>139</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>140</v>
@@ -2318,42 +2471,224 @@
         <v>141</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>310</v>
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
